--- a/src/python/tmp/identify_k.xlsx
+++ b/src/python/tmp/identify_k.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -386,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>0.5159279727732743</v>
+        <v>0.636426035465614</v>
       </c>
       <c r="D2">
-        <v>1156.811298747758</v>
+        <v>1294.676738244528</v>
       </c>
       <c r="E2">
-        <v>853.0676478054777</v>
+        <v>547.1840277574598</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +429,33 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="C3">
-        <v>0.5321600508902884</v>
+        <v>0.6445673900622838</v>
       </c>
       <c r="D3">
-        <v>1257.177987081139</v>
+        <v>1273.256961111686</v>
       </c>
       <c r="E3">
-        <v>825.5496318444626</v>
+        <v>525.1047579306844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>0.722828340622174</v>
+      </c>
+      <c r="D4">
+        <v>1180.734702465434</v>
+      </c>
+      <c r="E4">
+        <v>327.4704489611935</v>
       </c>
     </row>
   </sheetData>
@@ -447,414 +465,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-10.96747007536888</v>
+        <v>-11.03800010681152</v>
       </c>
       <c r="C2">
-        <v>-11.03765008854866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-11.03800010681152</v>
+      </c>
+      <c r="D2">
+        <v>-11.03800010681152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-15.68393981313706</v>
+        <v>-17.49499988555908</v>
       </c>
       <c r="C3">
-        <v>-17.35731971931457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-17.49499988555908</v>
+      </c>
+      <c r="D3">
+        <v>-17.49499988555908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-15.21015012741089</v>
+        <v>-16.03199996948242</v>
       </c>
       <c r="C4">
-        <v>-15.27151010990143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-15.93099994659424</v>
+      </c>
+      <c r="D4">
+        <v>-15.93099994659424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-10.82140002381802</v>
+        <v>-11.22100019454956</v>
       </c>
       <c r="C5">
-        <v>-10.80229001307488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-11.22100019454956</v>
+      </c>
+      <c r="D5">
+        <v>-11.22100019454956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-17.3324497923851</v>
+        <v>-17.65599966049194</v>
       </c>
       <c r="C6">
-        <v>-17.6206198387146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-17.65599966049194</v>
+      </c>
+      <c r="D6">
+        <v>-17.65599966049194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-15.87110994195938</v>
+        <v>-16.82599973678589</v>
       </c>
       <c r="C7">
-        <v>-16.19170994663239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-16.82599973678589</v>
+      </c>
+      <c r="D7">
+        <v>-16.82599973678589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-10.70131007671356</v>
+        <v>-10.72500009536743</v>
       </c>
       <c r="C8">
-        <v>-10.53954006767273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-10.22400012016296</v>
+      </c>
+      <c r="D8">
+        <v>-9.973000097274781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-16.58233031892777</v>
+        <v>-19.05700035095215</v>
       </c>
       <c r="C9">
-        <v>-18.49389042234421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-18.66700038909912</v>
+      </c>
+      <c r="D9">
+        <v>-18.76200046539306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-15.30689973831177</v>
+        <v>-15.9549994468689</v>
       </c>
       <c r="C10">
-        <v>-15.55804971790314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-14.92899980545044</v>
+      </c>
+      <c r="D10">
+        <v>-16.475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-10.69115007853508</v>
+        <v>-10.72100009918213</v>
       </c>
       <c r="C11">
-        <v>-10.69813006663322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-10.7460000038147</v>
+      </c>
+      <c r="D11">
+        <v>-10.70900011062622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-14.36321010971069</v>
+        <v>-16.06500005722046</v>
       </c>
       <c r="C12">
-        <v>-15.27114017915726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-16.38699998855591</v>
+      </c>
+      <c r="D12">
+        <v>-17.29400033950806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-11.17106001830101</v>
+        <v>-13.49100008010864</v>
       </c>
       <c r="C13">
-        <v>-11.58297002577782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-14.23400025367737</v>
+      </c>
+      <c r="D13">
+        <v>-14.71700010299683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-10.5933100938797</v>
+        <v>-9.780000019073487</v>
       </c>
       <c r="C14">
-        <v>-10.38928004956245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-10.15699996948242</v>
+      </c>
+      <c r="D14">
+        <v>-10.84300003051758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-16.56993008899689</v>
+        <v>-19.93199996948242</v>
       </c>
       <c r="C15">
-        <v>-18.92587008333206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-20.13099975585937</v>
+      </c>
+      <c r="D15">
+        <v>-19.60899982452393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-12.08935002660751</v>
+        <v>-13.68400011062622</v>
       </c>
       <c r="C16">
-        <v>-13.07092998838425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-13.67199993133545</v>
+      </c>
+      <c r="D16">
+        <v>-18.44499959945679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-12.11999988555908</v>
+        <v>-10.40600023269653</v>
       </c>
       <c r="C17">
-        <v>-10.66824014663696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-10.30299997329712</v>
+      </c>
+      <c r="D17">
+        <v>-10.53100018501282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-20.43000030517578</v>
+        <v>-15.24700012207031</v>
       </c>
       <c r="C18">
-        <v>-11.82322009134293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-18.34199991226196</v>
+      </c>
+      <c r="D18">
+        <v>-18.70900011062622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-17.31999969482422</v>
+        <v>-11.91599998474121</v>
       </c>
       <c r="C19">
-        <v>-10.69918013811111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-13.85100002288818</v>
+      </c>
+      <c r="D19">
+        <v>-15.63199987411499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-8.889380025148391</v>
+        <v>-8.515000104904175</v>
       </c>
       <c r="C20">
-        <v>-8.847870009422302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-8.833999872207642</v>
+      </c>
+      <c r="D20">
+        <v>-8.980999994277955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-11.34683009713888</v>
+        <v>-16.90900030136108</v>
       </c>
       <c r="C21">
-        <v>-12.80195018362999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-16.02500019073486</v>
+      </c>
+      <c r="D21">
+        <v>-20.95900049209595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-8.851530076146126</v>
+        <v>-11.5760000705719</v>
       </c>
       <c r="C22">
-        <v>-9.045490072250367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-10.80199995040894</v>
+      </c>
+      <c r="D22">
+        <v>-15.8520001411438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-10.60468006902933</v>
+        <v>-13.18000020980835</v>
       </c>
       <c r="C23">
-        <v>-11.15501011037827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-14.1850004196167</v>
+      </c>
+      <c r="D23">
+        <v>-18.3660005569458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-9.115909988164901</v>
+        <v>-10.67699995040894</v>
       </c>
       <c r="C24">
-        <v>-9.461689965724945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-10.36000003814697</v>
+      </c>
+      <c r="D24">
+        <v>-12.1649998664856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-10.83539990329743</v>
+        <v>-13.46299962997437</v>
       </c>
       <c r="C25">
-        <v>-12.08155983686447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-13.33499965667725</v>
+      </c>
+      <c r="D25">
+        <v>-16.77399969100952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-9.033480045318603</v>
+        <v>-9.520000171661376</v>
       </c>
       <c r="C26">
-        <v>-8.87685002720356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-8.359999942779542</v>
+      </c>
+      <c r="D26">
+        <v>-13.73400011062622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-9.72660002437234</v>
+        <v>-9.943999910354615</v>
       </c>
       <c r="C27">
-        <v>-9.983830016076565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-11.69799995422363</v>
+      </c>
+      <c r="D27">
+        <v>-13.76300010681152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-8.792440042823554</v>
+        <v>-9.140999937057495</v>
       </c>
       <c r="C28">
-        <v>-8.75156001675129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-8.35199990272522</v>
+      </c>
+      <c r="D28">
+        <v>-9.076999950408936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-9.096119998395443</v>
+        <v>-8.712000083923339</v>
       </c>
       <c r="C29">
-        <v>-9.069509994268417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-9.767000007629395</v>
+      </c>
+      <c r="D29">
+        <v>-9.767000007629395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-20.35265982532501</v>
+        <v>-20.31300010681152</v>
       </c>
       <c r="C30">
-        <v>-20.60503982448578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-20.23299961090088</v>
+      </c>
+      <c r="D30">
+        <v>-20.23299961090088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-12.56177002668381</v>
+        <v>-15.18700008392334</v>
       </c>
       <c r="C31">
-        <v>-13.86717004728317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-14.52299995422363</v>
+      </c>
+      <c r="D31">
+        <v>-14.52299995422363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-17.89610987210274</v>
+        <v>-18.75899972915649</v>
       </c>
       <c r="C32">
-        <v>-18.14761992359161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-18.95299987792969</v>
+      </c>
+      <c r="D32">
+        <v>-18.95299987792969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-11.40480016851425</v>
+        <v>-17.77500066757202</v>
       </c>
       <c r="C33">
-        <v>-13.49359031581879</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-17.62000064849854</v>
+      </c>
+      <c r="D33">
+        <v>-17.62000064849854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-13.40547983241081</v>
+        <v>-14.97399978637695</v>
       </c>
       <c r="C34">
-        <v>-13.903719810009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-14.42399997711182</v>
+      </c>
+      <c r="D34">
+        <v>-14.42399997711182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-13.35525003361702</v>
+        <v>-16.08100023269653</v>
       </c>
       <c r="C35">
-        <v>-13.95487007904053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-16.11600027084351</v>
+      </c>
+      <c r="D35">
+        <v>-16.11600027084351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-11.44677003312111</v>
+        <v>-12.19100008010864</v>
       </c>
       <c r="C36">
-        <v>-11.79755004715919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-11.9829999923706</v>
+      </c>
+      <c r="D36">
+        <v>-11.9829999923706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-10.82043000215292</v>
+        <v>-12.72099990844726</v>
       </c>
       <c r="C37">
-        <v>-12.13744996976852</v>
+        <v>-12.80000009536743</v>
+      </c>
+      <c r="D37">
+        <v>-12.80000009536743</v>
       </c>
     </row>
   </sheetData>
@@ -864,414 +993,525 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.3607966362868</v>
+        <v>1.193681813404344</v>
       </c>
       <c r="C2">
-        <v>1.299052097666818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1.193681813404344</v>
+      </c>
+      <c r="D2">
+        <v>1.193681813404344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.659061804294983</v>
+        <v>2.347659259126763</v>
       </c>
       <c r="C3">
-        <v>2.87581780790758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.347659259126763</v>
+      </c>
+      <c r="D3">
+        <v>2.347659259126763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9862242605518762</v>
+        <v>1.375258350329669</v>
       </c>
       <c r="C4">
-        <v>1.054587973854917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.606694978300484</v>
+      </c>
+      <c r="D4">
+        <v>1.606694978300484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.577029132681688</v>
+        <v>1.072972019804873</v>
       </c>
       <c r="C5">
-        <v>1.626392776269171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.072972019804873</v>
+      </c>
+      <c r="D5">
+        <v>1.072972019804873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.246983797059087</v>
+        <v>1.238936358131363</v>
       </c>
       <c r="C6">
-        <v>1.785918472150714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.238936358131363</v>
+      </c>
+      <c r="D6">
+        <v>1.238936358131363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.255511693144275</v>
+        <v>2.312575200213105</v>
       </c>
       <c r="C7">
-        <v>3.240426657283897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2.312575200213105</v>
+      </c>
+      <c r="D7">
+        <v>2.312575200213105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.50864195609354</v>
+        <v>1.071459287143229</v>
       </c>
       <c r="C8">
-        <v>1.59165994380455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.686494669299928</v>
+      </c>
+      <c r="D8">
+        <v>2.009880886677333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.426236830671229</v>
+        <v>1.736831065482412</v>
       </c>
       <c r="C9">
-        <v>3.192159241969441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.642559294718811</v>
+      </c>
+      <c r="D9">
+        <v>1.445183722007941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.692560141833284</v>
+        <v>0.8814559702098835</v>
       </c>
       <c r="C10">
-        <v>1.520829566138977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.060603768592193</v>
+      </c>
+      <c r="D10">
+        <v>1.811774024952592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.517658715457394</v>
+        <v>1.697606882614226</v>
       </c>
       <c r="C11">
-        <v>1.540330930429314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1.316853769072762</v>
+      </c>
+      <c r="D11">
+        <v>1.242259648605553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.621047560306175</v>
+        <v>2.626774841962307</v>
       </c>
       <c r="C12">
-        <v>3.491177990939778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.081115364046468</v>
+      </c>
+      <c r="D12">
+        <v>1.785414462362736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.265297859945225</v>
+        <v>1.812089684932166</v>
       </c>
       <c r="C13">
-        <v>2.507746850114505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>3.120792258961371</v>
+      </c>
+      <c r="D13">
+        <v>1.93313748476307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.535675425127956</v>
+        <v>0.8286133021969152</v>
       </c>
       <c r="C14">
-        <v>1.585651176245505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.976074143079381</v>
+      </c>
+      <c r="D14">
+        <v>0.8761627720144549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.337982359487482</v>
+        <v>0.9569719440650443</v>
       </c>
       <c r="C15">
-        <v>2.883872870763886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.039157763974764</v>
+      </c>
+      <c r="D15">
+        <v>1.517013007267381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.237574144958935</v>
+        <v>2.207234411456139</v>
       </c>
       <c r="C16">
-        <v>2.394055811194123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2.623828420103025</v>
+      </c>
+      <c r="D16">
+        <v>1.786360741217057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.344612896322836</v>
       </c>
       <c r="C17">
-        <v>1.569801192472756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.9518724980081945</v>
+      </c>
+      <c r="D17">
+        <v>1.190491209730694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.504795439702849</v>
       </c>
       <c r="C18">
-        <v>3.374579864145092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>2.467617505659249</v>
+      </c>
+      <c r="D18">
+        <v>2.552898154022211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.514900566897016</v>
       </c>
       <c r="C19">
-        <v>1.77617010164727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1.65034217040558</v>
+      </c>
+      <c r="D19">
+        <v>1.197203429219087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.58777261209387</v>
+        <v>1.649486298448978</v>
       </c>
       <c r="C20">
-        <v>1.421595504172295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.036891533651875</v>
+      </c>
+      <c r="D20">
+        <v>0.8288118937100462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.183354530469506</v>
+        <v>5.886524601901071</v>
       </c>
       <c r="C21">
-        <v>6.167799868455485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>7.296607930927123</v>
+      </c>
+      <c r="D21">
+        <v>3.141460021930827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.881342278604934</v>
+        <v>3.619995024126556</v>
       </c>
       <c r="C22">
-        <v>2.404667897619736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3.746584461685084</v>
+      </c>
+      <c r="D22">
+        <v>2.86939968685035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.808314917611296</v>
+        <v>4.285678876356009</v>
       </c>
       <c r="C23">
-        <v>4.213990818987788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>5.1706331151389</v>
+      </c>
+      <c r="D23">
+        <v>0.4932995183097335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.769299547654562</v>
+        <v>0.9695261499578131</v>
       </c>
       <c r="C24">
-        <v>1.93336676142149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1.717399182043978</v>
+      </c>
+      <c r="D24">
+        <v>2.522174545850357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.916458419403356</v>
+        <v>4.528156035620253</v>
       </c>
       <c r="C25">
-        <v>4.604627435963747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>4.193748039961491</v>
+      </c>
+      <c r="D25">
+        <v>3.204987059737643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.726618537916456</v>
+        <v>0.9464354124849219</v>
       </c>
       <c r="C26">
-        <v>1.738971830408193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1.874988033999101</v>
+      </c>
+      <c r="D26">
+        <v>2.181151978785374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.394201996064026</v>
+        <v>3.562687783529781</v>
       </c>
       <c r="C27">
-        <v>2.544299281633345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>2.13794200576977</v>
+      </c>
+      <c r="D27">
+        <v>2.622952935521204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.872198053742302</v>
+        <v>1.294090058736297</v>
       </c>
       <c r="C28">
-        <v>1.76539672083018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1.628525615791693</v>
+      </c>
+      <c r="D28">
+        <v>2.449812413477607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.618383761551267</v>
+        <v>1.73069248868394</v>
       </c>
       <c r="C29">
-        <v>1.559100275509368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>1.029563514399146</v>
+      </c>
+      <c r="D29">
+        <v>1.029563514399146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.803555752700029</v>
+        <v>0.8672488804469077</v>
       </c>
       <c r="C30">
-        <v>0.9309552622599879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>1.338223201130675</v>
+      </c>
+      <c r="D30">
+        <v>1.338223201130675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.717547314811179</v>
+        <v>2.650302171685739</v>
       </c>
       <c r="C31">
-        <v>3.750949316637053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>3.121519253726553</v>
+      </c>
+      <c r="D31">
+        <v>3.121519253726553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.669176170257801</v>
+        <v>1.344265103133887</v>
       </c>
       <c r="C32">
-        <v>2.093904377663979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.5352575379457767</v>
+      </c>
+      <c r="D32">
+        <v>0.5352575379457767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.228166515629187</v>
+        <v>2.571798270225605</v>
       </c>
       <c r="C33">
-        <v>4.820715313346585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>2.693236287864595</v>
+      </c>
+      <c r="D33">
+        <v>2.693236287864595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.940706928669736</v>
+        <v>2.333928602517527</v>
       </c>
       <c r="C34">
-        <v>2.788734948429247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>2.448522779144198</v>
+      </c>
+      <c r="D34">
+        <v>2.448522779144198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.300167084833855</v>
+        <v>2.630982610831369</v>
       </c>
       <c r="C35">
-        <v>3.195792116924357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.926459049873751</v>
+      </c>
+      <c r="D35">
+        <v>1.926459049873751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.283877602263495</v>
+        <v>1.195813160144835</v>
       </c>
       <c r="C36">
-        <v>2.176503100312356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>2.001299931315874</v>
+      </c>
+      <c r="D36">
+        <v>2.001299931315874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.457608281626083</v>
+        <v>1.353014894644573</v>
       </c>
       <c r="C37">
-        <v>2.113742826521611</v>
+        <v>1.059924376759156</v>
+      </c>
+      <c r="D37">
+        <v>1.059924376759156</v>
       </c>
     </row>
   </sheetData>
@@ -1281,414 +1521,1053 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.389644720368882</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2.459824733548661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.106114452137055</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>8.779494358314574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.822324820410886</v>
+        <v>9.329989512832903</v>
       </c>
       <c r="C4">
-        <v>4.883684802901424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7126488168180174</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.6935388060748764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.223698584385101</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7.511868630714599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.762358729959383</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.082958734632388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.377441037286438</v>
+        <v>2.779628477770794</v>
       </c>
       <c r="C8">
-        <v>-2.539211046327269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6.949071194426986</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.503579196927765</v>
+        <v>2.779628467764129</v>
       </c>
       <c r="C9">
-        <v>5.415139300344206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>6.949071169410321</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.168148679311766</v>
+        <v>1.725155691637334</v>
       </c>
       <c r="C10">
-        <v>1.419298658903136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4.312889229093335</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-5.097600954464921</v>
+        <v>0.8210406270915556</v>
       </c>
       <c r="C11">
-        <v>-5.090620966366776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2.052601567728889</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.425540927289308</v>
+        <v>0.8210406256136823</v>
       </c>
       <c r="C12">
-        <v>-0.5176108578427439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.052601564034206</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.617691016698993</v>
+        <v>0.8210406263526182</v>
       </c>
       <c r="C13">
-        <v>-4.205781009222186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2.052601565881545</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-6.895441225120299</v>
+        <v>0.3820580133232599</v>
       </c>
       <c r="C14">
-        <v>-7.099471269437544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.9551450333081497</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.9188212310031112</v>
+        <v>0.3820580131513337</v>
       </c>
       <c r="C15">
-        <v>1.437118763332062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.9551450328783343</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-5.399401293392485</v>
+        <v>0.3820580131513337</v>
       </c>
       <c r="C16">
-        <v>-4.417821331615752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.9551450328783343</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-8.988750844440915</v>
+        <v>0.07493137760731169</v>
       </c>
       <c r="C17">
-        <v>-10.44051058336303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.1873284440182792</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6787504228242192</v>
+        <v>0.07493137767474981</v>
       </c>
       <c r="C18">
-        <v>-9.285530636657075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.1873284441868745</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-3.788751039175779</v>
+        <v>0.07493137747243507</v>
       </c>
       <c r="C19">
-        <v>-10.40957059588888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.1873284436810877</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.836771145851607</v>
+        <v>0.2189279173277283</v>
       </c>
       <c r="C20">
-        <v>-9.878281161577696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.5473197933193207</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-7.379321069861115</v>
+        <v>0.2189279177217986</v>
       </c>
       <c r="C21">
-        <v>-5.924200983370008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.5473197943044964</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-9.874621090853871</v>
+        <v>0.2189279177217986</v>
       </c>
       <c r="C22">
-        <v>-9.680661094749631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.5473197943044964</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-8.121471104970666</v>
+        <v>0.2189279170321754</v>
       </c>
       <c r="C23">
-        <v>-7.571141063621733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.5473197925804385</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-9.6102411828351</v>
+        <v>0.2189279173277279</v>
       </c>
       <c r="C24">
-        <v>-9.264461205275056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.5473197933193198</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-7.890751267702576</v>
+        <v>0.2189279173277279</v>
       </c>
       <c r="C25">
-        <v>-6.64459133413553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.5473197933193198</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-9.692671124681398</v>
+        <v>0.2189279174262453</v>
       </c>
       <c r="C26">
-        <v>-9.849301142796442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.5473197935656132</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-8.999551150627658</v>
+        <v>0.218927916933658</v>
       </c>
       <c r="C27">
-        <v>-8.742321158923433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.5473197923341451</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-9.933711126176444</v>
+        <v>0.2189279175247634</v>
       </c>
       <c r="C28">
-        <v>-9.974591152248708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.5473197938119085</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.359505475604557</v>
+        <v>9.049629482216162</v>
       </c>
       <c r="C29">
-        <v>-1.386115479731583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.897034348325013</v>
+        <v>9.049629469999161</v>
       </c>
       <c r="C30">
-        <v>10.14941434748578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.106144552683807</v>
+        <v>9.049629482216153</v>
       </c>
       <c r="C31">
-        <v>3.411544573283171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.44048439610274</v>
+        <v>9.049629474071494</v>
       </c>
       <c r="C32">
-        <v>7.691994447591615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8491746975142522</v>
+        <v>8.651423008200654</v>
       </c>
       <c r="C33">
-        <v>2.937964844818788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.949854357410812</v>
+        <v>9.049629478143828</v>
       </c>
       <c r="C34">
-        <v>3.448094335009003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.899624563617021</v>
+        <v>9.049629498505496</v>
       </c>
       <c r="C35">
-        <v>3.499244609040527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9911445571211068</v>
+        <v>9.049629474071486</v>
       </c>
       <c r="C36">
-        <v>1.341924571159193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3648045301529201</v>
+        <v>9.049629490360829</v>
       </c>
       <c r="C37">
-        <v>1.681824497768524</v>
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.460174751811524</v>
+      </c>
+      <c r="C2">
+        <v>2.460174751811524</v>
+      </c>
+      <c r="D2">
+        <v>2.460174751811524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.917174524559082</v>
+      </c>
+      <c r="C3">
+        <v>8.917174524559082</v>
+      </c>
+      <c r="D3">
+        <v>8.917174524559082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.644174662482419</v>
+      </c>
+      <c r="C4">
+        <v>5.543174639594236</v>
+      </c>
+      <c r="D4">
+        <v>5.543174639594236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.112248987549561</v>
+      </c>
+      <c r="C5">
+        <v>1.112248987549561</v>
+      </c>
+      <c r="D5">
+        <v>1.112248987549561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.547248452491942</v>
+      </c>
+      <c r="C6">
+        <v>7.547248452491942</v>
+      </c>
+      <c r="D6">
+        <v>7.547248452491942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6.717248524785891</v>
+      </c>
+      <c r="C7">
+        <v>6.717248524785891</v>
+      </c>
+      <c r="D7">
+        <v>6.717248524785891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-2.353751018632568</v>
+      </c>
+      <c r="C8">
+        <v>-2.854750993837035</v>
+      </c>
+      <c r="D8">
+        <v>-3.105751016725218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.978249228952146</v>
+      </c>
+      <c r="C9">
+        <v>5.588249267099121</v>
+      </c>
+      <c r="D9">
+        <v>5.683249343393063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.816248387868896</v>
+      </c>
+      <c r="C10">
+        <v>0.7902487464504393</v>
+      </c>
+      <c r="D10">
+        <v>2.336248941000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-5.067750933817871</v>
+      </c>
+      <c r="C11">
+        <v>-5.042751029185304</v>
+      </c>
+      <c r="D11">
+        <v>-5.07975092237378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.2762490202204582</v>
+      </c>
+      <c r="C12">
+        <v>0.598248951555906</v>
+      </c>
+      <c r="D12">
+        <v>1.505249302508055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-2.297750954891359</v>
+      </c>
+      <c r="C13">
+        <v>-1.554750781322634</v>
+      </c>
+      <c r="D13">
+        <v>-1.071750932003177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-7.708751299926512</v>
+      </c>
+      <c r="C14">
+        <v>-7.331751349517576</v>
+      </c>
+      <c r="D14">
+        <v>-6.645751288482421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.443248649482424</v>
+      </c>
+      <c r="C15">
+        <v>2.642248435859376</v>
+      </c>
+      <c r="D15">
+        <v>2.120248504523929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-3.804751209373778</v>
+      </c>
+      <c r="C16">
+        <v>-3.816751388664549</v>
+      </c>
+      <c r="D16">
+        <v>0.956248279456787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-10.70275049730346</v>
+      </c>
+      <c r="C17">
+        <v>-10.80575075670288</v>
+      </c>
+      <c r="D17">
+        <v>-10.57775054498718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-5.861750605929688</v>
+      </c>
+      <c r="C18">
+        <v>-2.766750815738039</v>
+      </c>
+      <c r="D18">
+        <v>-2.39975061737378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-9.19275074925879</v>
+      </c>
+      <c r="C19">
+        <v>-7.257750711111818</v>
+      </c>
+      <c r="D19">
+        <v>-5.47675085988501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-10.21115106609582</v>
+      </c>
+      <c r="C20">
+        <v>-9.892151298792356</v>
+      </c>
+      <c r="D20">
+        <v>-9.745151176722043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-1.817150865638915</v>
+      </c>
+      <c r="C21">
+        <v>-2.701150976265133</v>
+      </c>
+      <c r="D21">
+        <v>2.232849325095948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-7.150151096428099</v>
+      </c>
+      <c r="C22">
+        <v>-7.924151216591062</v>
+      </c>
+      <c r="D22">
+        <v>-2.874151025856198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-5.546150964191648</v>
+      </c>
+      <c r="C23">
+        <v>-4.541150754383299</v>
+      </c>
+      <c r="D23">
+        <v>-0.3601506170541988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-8.049151220591066</v>
+      </c>
+      <c r="C24">
+        <v>-8.366151132853028</v>
+      </c>
+      <c r="D24">
+        <v>-6.561151304514405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-5.263151541025636</v>
+      </c>
+      <c r="C25">
+        <v>-5.391151514322756</v>
+      </c>
+      <c r="D25">
+        <v>-1.95215147999048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-9.206150998338625</v>
+      </c>
+      <c r="C26">
+        <v>-10.36615122722046</v>
+      </c>
+      <c r="D26">
+        <v>-4.99215105937378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-8.782151264645384</v>
+      </c>
+      <c r="C27">
+        <v>-7.028151220776365</v>
+      </c>
+      <c r="D27">
+        <v>-4.963151068188475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-9.585151231942502</v>
+      </c>
+      <c r="C28">
+        <v>-10.37415126627478</v>
+      </c>
+      <c r="D28">
+        <v>-9.649151218591062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-1.743625390076661</v>
+      </c>
+      <c r="C29">
+        <v>-0.6886254663706044</v>
+      </c>
+      <c r="D29">
+        <v>-0.6886254663706044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>9.857374629811522</v>
+      </c>
+      <c r="C30">
+        <v>9.77737413390088</v>
+      </c>
+      <c r="D30">
+        <v>9.77737413390088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4.731374609923339</v>
+      </c>
+      <c r="C31">
+        <v>4.067374480223631</v>
+      </c>
+      <c r="D31">
+        <v>4.067374480223631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>8.303374253156493</v>
+      </c>
+      <c r="C32">
+        <v>8.497374401929688</v>
+      </c>
+      <c r="D32">
+        <v>8.497374401929688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>7.219375196572024</v>
+      </c>
+      <c r="C33">
+        <v>7.064375177498537</v>
+      </c>
+      <c r="D33">
+        <v>7.064375177498537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4.518374311376954</v>
+      </c>
+      <c r="C34">
+        <v>3.968374502111816</v>
+      </c>
+      <c r="D34">
+        <v>3.968374502111816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>5.625374762696532</v>
+      </c>
+      <c r="C35">
+        <v>5.660374800843508</v>
+      </c>
+      <c r="D35">
+        <v>5.660374800843508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.735374604108641</v>
+      </c>
+      <c r="C36">
+        <v>1.527374516370603</v>
+      </c>
+      <c r="D36">
+        <v>1.527374516370603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2.265374436447265</v>
+      </c>
+      <c r="C37">
+        <v>2.344374623367433</v>
+      </c>
+      <c r="D37">
+        <v>2.344374623367433</v>
       </c>
     </row>
   </sheetData>

--- a/src/python/tmp/identify_k.xlsx
+++ b/src/python/tmp/identify_k.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>k1</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -415,13 +418,13 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>0.636426035465614</v>
+        <v>0.6220215083921713</v>
       </c>
       <c r="D2">
-        <v>1294.676738244528</v>
+        <v>1317.352123996162</v>
       </c>
       <c r="E2">
-        <v>547.1840277574598</v>
+        <v>510.4334763963741</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,30 +435,30 @@
         <v>2500</v>
       </c>
       <c r="C3">
-        <v>0.6445673900622838</v>
+        <v>0.6512959372045031</v>
       </c>
       <c r="D3">
-        <v>1273.256961111686</v>
+        <v>1315.799924434939</v>
       </c>
       <c r="E3">
-        <v>525.1047579306844</v>
+        <v>465.2024577850155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2500</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.722828340622174</v>
+        <v>0.7246563342667894</v>
       </c>
       <c r="D4">
-        <v>1180.734702465434</v>
+        <v>1216.540020710258</v>
       </c>
       <c r="E4">
-        <v>327.4704489611935</v>
+        <v>304.8851687517172</v>
       </c>
     </row>
   </sheetData>
@@ -473,13 +476,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
+        <v>2500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -487,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-11.03800010681152</v>
+        <v>-10.86600008010864</v>
       </c>
       <c r="C2">
-        <v>-11.03800010681152</v>
+        <v>-10.86600008010864</v>
       </c>
       <c r="D2">
-        <v>-11.03800010681152</v>
+        <v>-10.86600008010864</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -501,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-17.49499988555908</v>
+        <v>-18.90999965667725</v>
       </c>
       <c r="C3">
-        <v>-17.49499988555908</v>
+        <v>-18.90999965667725</v>
       </c>
       <c r="D3">
-        <v>-17.49499988555908</v>
+        <v>-18.90999965667725</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -515,13 +518,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-16.03199996948242</v>
+        <v>-15.08400001525879</v>
       </c>
       <c r="C4">
-        <v>-15.93099994659424</v>
+        <v>-15.27700004577637</v>
       </c>
       <c r="D4">
-        <v>-15.93099994659424</v>
+        <v>-15.27700004577637</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -529,13 +532,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-11.22100019454956</v>
+        <v>-10.93200006484985</v>
       </c>
       <c r="C5">
-        <v>-11.22100019454956</v>
+        <v>-10.93200006484985</v>
       </c>
       <c r="D5">
-        <v>-11.22100019454956</v>
+        <v>-10.93200006484985</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -543,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-17.65599966049194</v>
+        <v>-18.3689998626709</v>
       </c>
       <c r="C6">
-        <v>-17.65599966049194</v>
+        <v>-18.3689998626709</v>
       </c>
       <c r="D6">
-        <v>-17.65599966049194</v>
+        <v>-18.3689998626709</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -557,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-16.82599973678589</v>
+        <v>-18.82500009536743</v>
       </c>
       <c r="C7">
-        <v>-16.82599973678589</v>
+        <v>-18.82500009536743</v>
       </c>
       <c r="D7">
-        <v>-16.82599973678589</v>
+        <v>-18.82500009536743</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -571,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-10.72500009536743</v>
+        <v>-10.59800000190735</v>
       </c>
       <c r="C8">
-        <v>-10.22400012016296</v>
+        <v>-11.01300001144409</v>
       </c>
       <c r="D8">
-        <v>-9.973000097274781</v>
+        <v>-10.43000011444092</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -585,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-19.05700035095215</v>
+        <v>-19.07100028991699</v>
       </c>
       <c r="C9">
-        <v>-18.66700038909912</v>
+        <v>-19.62400045394897</v>
       </c>
       <c r="D9">
-        <v>-18.76200046539306</v>
+        <v>-19.96200065612793</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -599,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-15.9549994468689</v>
+        <v>-16.16499996185303</v>
       </c>
       <c r="C10">
-        <v>-14.92899980545044</v>
+        <v>-16.28199996948242</v>
       </c>
       <c r="D10">
-        <v>-16.475</v>
+        <v>-15.96699991226196</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -613,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-10.72100009918213</v>
+        <v>-10.9980001449585</v>
       </c>
       <c r="C11">
-        <v>-10.7460000038147</v>
+        <v>-10.67200002670288</v>
       </c>
       <c r="D11">
-        <v>-10.70900011062622</v>
+        <v>-11.46300001144409</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -627,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-16.06500005722046</v>
+        <v>-17.14000005722046</v>
       </c>
       <c r="C12">
-        <v>-16.38699998855591</v>
+        <v>-18.3040002822876</v>
       </c>
       <c r="D12">
-        <v>-17.29400033950806</v>
+        <v>-17.88600034713745</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -641,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-13.49100008010864</v>
+        <v>-13.22099990844726</v>
       </c>
       <c r="C13">
-        <v>-14.23400025367737</v>
+        <v>-14.07700004577637</v>
       </c>
       <c r="D13">
-        <v>-14.71700010299683</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -655,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.780000019073487</v>
+        <v>-9.65600004196167</v>
       </c>
       <c r="C14">
-        <v>-10.15699996948242</v>
+        <v>-10.59200000762939</v>
       </c>
       <c r="D14">
-        <v>-10.84300003051758</v>
+        <v>-10.82800006866455</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -669,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-19.93199996948242</v>
+        <v>-19.76900024414062</v>
       </c>
       <c r="C15">
-        <v>-20.13099975585937</v>
+        <v>-20.12100009918213</v>
       </c>
       <c r="D15">
-        <v>-19.60899982452393</v>
+        <v>-19.23600044250488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -683,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-13.68400011062622</v>
+        <v>-15.30500011444092</v>
       </c>
       <c r="C16">
-        <v>-13.67199993133545</v>
+        <v>-15.40899972915649</v>
       </c>
       <c r="D16">
-        <v>-18.44499959945679</v>
+        <v>-18.20499973297119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -697,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.40600023269653</v>
+        <v>-10.53000001907349</v>
       </c>
       <c r="C17">
-        <v>-10.30299997329712</v>
+        <v>-10.62799997329712</v>
       </c>
       <c r="D17">
-        <v>-10.53100018501282</v>
+        <v>-9.769000101089478</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -711,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-15.24700012207031</v>
+        <v>-15.70600008964539</v>
       </c>
       <c r="C18">
-        <v>-18.34199991226196</v>
+        <v>-18.15200023651123</v>
       </c>
       <c r="D18">
-        <v>-18.70900011062622</v>
+        <v>-19.1439998626709</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -725,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-11.91599998474121</v>
+        <v>-11.56899991035461</v>
       </c>
       <c r="C19">
-        <v>-13.85100002288818</v>
+        <v>-11.5389999628067</v>
       </c>
       <c r="D19">
-        <v>-15.63199987411499</v>
+        <v>-15.26099996566773</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -739,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-8.515000104904175</v>
+        <v>-9.011999988555909</v>
       </c>
       <c r="C20">
-        <v>-8.833999872207642</v>
+        <v>-8.64900016784668</v>
       </c>
       <c r="D20">
-        <v>-8.980999994277955</v>
+        <v>-8.632000017166138</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -753,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-16.90900030136108</v>
+        <v>-17.4040002822876</v>
       </c>
       <c r="C21">
-        <v>-16.02500019073486</v>
+        <v>-17.63600015640259</v>
       </c>
       <c r="D21">
-        <v>-20.95900049209595</v>
+        <v>-20.16900053024292</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -767,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-11.5760000705719</v>
+        <v>-10.14400010108948</v>
       </c>
       <c r="C22">
-        <v>-10.80199995040894</v>
+        <v>-11.11900033950806</v>
       </c>
       <c r="D22">
-        <v>-15.8520001411438</v>
+        <v>-16.53799991607666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -781,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-13.18000020980835</v>
+        <v>-13.37700028419495</v>
       </c>
       <c r="C23">
-        <v>-14.1850004196167</v>
+        <v>-11.8540002822876</v>
       </c>
       <c r="D23">
-        <v>-18.3660005569458</v>
+        <v>-18.22800064086914</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -795,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-10.67699995040894</v>
+        <v>-9.75</v>
       </c>
       <c r="C24">
-        <v>-10.36000003814697</v>
+        <v>-9.745999860763551</v>
       </c>
       <c r="D24">
-        <v>-12.1649998664856</v>
+        <v>-14.93199977874756</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -809,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-13.46299962997437</v>
+        <v>-12.81699991226196</v>
       </c>
       <c r="C25">
-        <v>-13.33499965667725</v>
+        <v>-13.76900000572205</v>
       </c>
       <c r="D25">
-        <v>-16.77399969100952</v>
+        <v>-17.97499961853027</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -823,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-9.520000171661376</v>
+        <v>-8.554000091552734</v>
       </c>
       <c r="C26">
-        <v>-8.359999942779542</v>
+        <v>-9.276999759674073</v>
       </c>
       <c r="D26">
-        <v>-13.73400011062622</v>
+        <v>-11.65200004577637</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -837,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-9.943999910354615</v>
+        <v>-11.7300000667572</v>
       </c>
       <c r="C27">
-        <v>-11.69799995422363</v>
+        <v>-11.88099994659424</v>
       </c>
       <c r="D27">
-        <v>-13.76300010681152</v>
+        <v>-13.26200008392334</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -851,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-9.140999937057495</v>
+        <v>-9.581999969482421</v>
       </c>
       <c r="C28">
-        <v>-8.35199990272522</v>
+        <v>-10.06100001335144</v>
       </c>
       <c r="D28">
-        <v>-9.076999950408936</v>
+        <v>-10.01899995803833</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -865,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-8.712000083923339</v>
+        <v>-9.671999979019166</v>
       </c>
       <c r="C29">
-        <v>-9.767000007629395</v>
+        <v>-8.723000049591064</v>
       </c>
       <c r="D29">
-        <v>-9.767000007629395</v>
+        <v>-8.723000049591064</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -879,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-20.31300010681152</v>
+        <v>-20.88099975585937</v>
       </c>
       <c r="C30">
-        <v>-20.23299961090088</v>
+        <v>-20.83599967956543</v>
       </c>
       <c r="D30">
-        <v>-20.23299961090088</v>
+        <v>-20.83599967956543</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -893,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-15.18700008392334</v>
+        <v>-14.29799976348877</v>
       </c>
       <c r="C31">
-        <v>-14.52299995422363</v>
+        <v>-14.28600006103516</v>
       </c>
       <c r="D31">
-        <v>-14.52299995422363</v>
+        <v>-14.28600006103516</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -907,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-18.75899972915649</v>
+        <v>-18.47799987792969</v>
       </c>
       <c r="C32">
-        <v>-18.95299987792969</v>
+        <v>-18.65699977874756</v>
       </c>
       <c r="D32">
-        <v>-18.95299987792969</v>
+        <v>-18.65699977874756</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -921,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-17.77500066757202</v>
+        <v>-18.14400062561035</v>
       </c>
       <c r="C33">
-        <v>-17.62000064849854</v>
+        <v>-18.30400066375732</v>
       </c>
       <c r="D33">
-        <v>-17.62000064849854</v>
+        <v>-18.30400066375732</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -935,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-14.97399978637695</v>
+        <v>-15.01499977111816</v>
       </c>
       <c r="C34">
-        <v>-14.42399997711182</v>
+        <v>-14.92799987792969</v>
       </c>
       <c r="D34">
-        <v>-14.42399997711182</v>
+        <v>-14.92799987792969</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -949,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-16.08100023269653</v>
+        <v>-15.8579999923706</v>
       </c>
       <c r="C35">
-        <v>-16.11600027084351</v>
+        <v>-15.81600008010864</v>
       </c>
       <c r="D35">
-        <v>-16.11600027084351</v>
+        <v>-15.81600008010864</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -963,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-12.19100008010864</v>
+        <v>-11.81600017547607</v>
       </c>
       <c r="C36">
-        <v>-11.9829999923706</v>
+        <v>-11.89200015068054</v>
       </c>
       <c r="D36">
-        <v>-11.9829999923706</v>
+        <v>-11.89200015068054</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -977,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-12.72099990844726</v>
+        <v>-13.20099992752075</v>
       </c>
       <c r="C37">
-        <v>-12.80000009536743</v>
+        <v>-12.8439998626709</v>
       </c>
       <c r="D37">
-        <v>-12.80000009536743</v>
+        <v>-12.8439998626709</v>
       </c>
     </row>
   </sheetData>
@@ -1001,13 +1004,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
+        <v>2500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1015,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.193681813404344</v>
+        <v>1.145523601473692</v>
       </c>
       <c r="C2">
-        <v>1.193681813404344</v>
+        <v>1.145523601473692</v>
       </c>
       <c r="D2">
-        <v>1.193681813404344</v>
+        <v>1.145523601473692</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1029,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.347659259126763</v>
+        <v>1.000099675360851</v>
       </c>
       <c r="C3">
-        <v>2.347659259126763</v>
+        <v>1.000099675360851</v>
       </c>
       <c r="D3">
-        <v>2.347659259126763</v>
+        <v>1.000099675360851</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1043,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.375258350329669</v>
+        <v>1.652520640954465</v>
       </c>
       <c r="C4">
-        <v>1.606694978300484</v>
+        <v>1.087226413410471</v>
       </c>
       <c r="D4">
-        <v>1.606694978300484</v>
+        <v>1.087226413410471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1057,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072972019804873</v>
+        <v>1.516890248446877</v>
       </c>
       <c r="C5">
-        <v>1.072972019804873</v>
+        <v>1.516890248446877</v>
       </c>
       <c r="D5">
-        <v>1.072972019804873</v>
+        <v>1.516890248446877</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1071,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.238936358131363</v>
+        <v>0.7913081511189101</v>
       </c>
       <c r="C6">
-        <v>1.238936358131363</v>
+        <v>0.7913081511189101</v>
       </c>
       <c r="D6">
-        <v>1.238936358131363</v>
+        <v>0.7913081511189101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1085,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.312575200213105</v>
+        <v>1.800473391727487</v>
       </c>
       <c r="C7">
-        <v>2.312575200213105</v>
+        <v>1.800473391727487</v>
       </c>
       <c r="D7">
-        <v>2.312575200213105</v>
+        <v>1.800473391727487</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1099,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.071459287143229</v>
+        <v>1.379672481020194</v>
       </c>
       <c r="C8">
-        <v>1.686494669299928</v>
+        <v>1.229431245241183</v>
       </c>
       <c r="D8">
-        <v>2.009880886677333</v>
+        <v>1.366177145004059</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1113,13 +1116,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.736831065482412</v>
+        <v>2.541973563206181</v>
       </c>
       <c r="C9">
-        <v>1.642559294718811</v>
+        <v>1.936415472205508</v>
       </c>
       <c r="D9">
-        <v>1.445183722007941</v>
+        <v>1.112859395361392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1127,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8814559702098835</v>
+        <v>0.7041626723980269</v>
       </c>
       <c r="C10">
-        <v>2.060603768592193</v>
+        <v>0.7260689038034123</v>
       </c>
       <c r="D10">
-        <v>1.811774024952592</v>
+        <v>1.753340084494987</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1141,13 +1144,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697606882614226</v>
+        <v>1.143536586601533</v>
       </c>
       <c r="C11">
-        <v>1.316853769072762</v>
+        <v>1.714968161213453</v>
       </c>
       <c r="D11">
-        <v>1.242259648605553</v>
+        <v>0.8099760053542449</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1155,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.626774841962307</v>
+        <v>2.191826022525297</v>
       </c>
       <c r="C12">
-        <v>2.081115364046468</v>
+        <v>0.4463903023164335</v>
       </c>
       <c r="D12">
-        <v>1.785414462362736</v>
+        <v>1.057310019351197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1169,13 +1172,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.812089684932166</v>
+        <v>2.213271088766315</v>
       </c>
       <c r="C13">
-        <v>3.120792258961371</v>
+        <v>2.574638203891144</v>
       </c>
       <c r="D13">
-        <v>1.93313748476307</v>
+        <v>1.906305149969082</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1183,13 +1186,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8286133021969152</v>
+        <v>2.208163177742394</v>
       </c>
       <c r="C14">
-        <v>0.976074143079381</v>
+        <v>1.381403712708049</v>
       </c>
       <c r="D14">
-        <v>0.8761627720144549</v>
+        <v>0.7028628097202004</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1197,13 +1200,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9569719440650443</v>
+        <v>0.7592422154355113</v>
       </c>
       <c r="C15">
-        <v>1.039157763974764</v>
+        <v>0.8254503187807742</v>
       </c>
       <c r="D15">
-        <v>1.517013007267381</v>
+        <v>1.030176563099675</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1211,13 +1214,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.207234411456139</v>
+        <v>2.705336474661106</v>
       </c>
       <c r="C16">
-        <v>2.623828420103025</v>
+        <v>3.222339014697157</v>
       </c>
       <c r="D16">
-        <v>1.786360741217057</v>
+        <v>1.551652184667055</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1225,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.344612896322836</v>
+        <v>1.510211925716857</v>
       </c>
       <c r="C17">
-        <v>0.9518724980081945</v>
+        <v>1.420385824597179</v>
       </c>
       <c r="D17">
-        <v>1.190491209730694</v>
+        <v>1.464175150838716</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1239,13 +1242,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.504795439702849</v>
+        <v>5.432959168875953</v>
       </c>
       <c r="C18">
-        <v>2.467617505659249</v>
+        <v>2.998992527300211</v>
       </c>
       <c r="D18">
-        <v>2.552898154022211</v>
+        <v>2.286863332450445</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1253,13 +1256,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.514900566897016</v>
+        <v>2.352264484546236</v>
       </c>
       <c r="C19">
-        <v>1.65034217040558</v>
+        <v>3.243530387086581</v>
       </c>
       <c r="D19">
-        <v>1.197203429219087</v>
+        <v>1.530708567176837</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1267,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.649486298448978</v>
+        <v>1.010710642936977</v>
       </c>
       <c r="C20">
-        <v>1.036891533651875</v>
+        <v>1.187438006666549</v>
       </c>
       <c r="D20">
-        <v>0.8288118937100462</v>
+        <v>1.432332337779868</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1281,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.886524601901071</v>
+        <v>5.936203062996602</v>
       </c>
       <c r="C21">
-        <v>7.296607930927123</v>
+        <v>5.280241028263673</v>
       </c>
       <c r="D21">
-        <v>3.141460021930827</v>
+        <v>4.537619552312716</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1295,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.619995024126556</v>
+        <v>3.601186400299266</v>
       </c>
       <c r="C22">
-        <v>3.746584461685084</v>
+        <v>3.908916731273717</v>
       </c>
       <c r="D22">
-        <v>2.86939968685035</v>
+        <v>1.588179873519957</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1309,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.285678876356009</v>
+        <v>4.414469810944749</v>
       </c>
       <c r="C23">
-        <v>5.1706331151389</v>
+        <v>5.321983509231721</v>
       </c>
       <c r="D23">
-        <v>0.4932995183097335</v>
+        <v>0.8051562562919451</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1323,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9695261499578131</v>
+        <v>0.7488390929341189</v>
       </c>
       <c r="C24">
-        <v>1.717399182043978</v>
+        <v>2.193819415362211</v>
       </c>
       <c r="D24">
-        <v>2.522174545850357</v>
+        <v>3.272053674530456</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1337,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.528156035620253</v>
+        <v>3.853367318655487</v>
       </c>
       <c r="C25">
-        <v>4.193748039961491</v>
+        <v>4.416506180813691</v>
       </c>
       <c r="D25">
-        <v>3.204987059737643</v>
+        <v>2.160611934093905</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1351,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9464354124849219</v>
+        <v>1.420804084810308</v>
       </c>
       <c r="C26">
-        <v>1.874988033999101</v>
+        <v>1.141113894091496</v>
       </c>
       <c r="D26">
-        <v>2.181151978785374</v>
+        <v>2.273810942229824</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1365,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.562687783529781</v>
+        <v>3.004869449045595</v>
       </c>
       <c r="C27">
-        <v>2.13794200576977</v>
+        <v>2.573932602190468</v>
       </c>
       <c r="D27">
-        <v>2.622952935521204</v>
+        <v>2.292648252908897</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1379,13 +1382,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.294090058736297</v>
+        <v>0.6255204393080628</v>
       </c>
       <c r="C28">
-        <v>1.628525615791693</v>
+        <v>2.590631017212006</v>
       </c>
       <c r="D28">
-        <v>2.449812413477607</v>
+        <v>2.698286236785032</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1393,13 +1396,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.73069248868394</v>
+        <v>1.145528625190604</v>
       </c>
       <c r="C29">
-        <v>1.029563514399146</v>
+        <v>1.414482745758801</v>
       </c>
       <c r="D29">
-        <v>1.029563514399146</v>
+        <v>1.414482745758801</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1407,13 +1410,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8672488804469077</v>
+        <v>0.3799064050356306</v>
       </c>
       <c r="C30">
-        <v>1.338223201130675</v>
+        <v>0.7020000457763672</v>
       </c>
       <c r="D30">
-        <v>1.338223201130675</v>
+        <v>0.7020000457763672</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1421,13 +1424,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.650302171685739</v>
+        <v>2.714806605633389</v>
       </c>
       <c r="C31">
-        <v>3.121519253726553</v>
+        <v>3.198878739994938</v>
       </c>
       <c r="D31">
-        <v>3.121519253726553</v>
+        <v>3.198878739994938</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1435,13 +1438,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.344265103133887</v>
+        <v>1.034077127114804</v>
       </c>
       <c r="C32">
-        <v>0.5352575379457767</v>
+        <v>0.9001561831189517</v>
       </c>
       <c r="D32">
-        <v>0.5352575379457767</v>
+        <v>0.9001561831189517</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1449,13 +1452,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.571798270225605</v>
+        <v>1.109416394859374</v>
       </c>
       <c r="C33">
-        <v>2.693236287864595</v>
+        <v>0.9520107487464976</v>
       </c>
       <c r="D33">
-        <v>2.693236287864595</v>
+        <v>0.9520107487464976</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1463,13 +1466,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.333928602517527</v>
+        <v>1.709188213513307</v>
       </c>
       <c r="C34">
-        <v>2.448522779144198</v>
+        <v>1.901855875758207</v>
       </c>
       <c r="D34">
-        <v>2.448522779144198</v>
+        <v>1.901855875758207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1477,13 +1480,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.630982610831369</v>
+        <v>2.006473723600044</v>
       </c>
       <c r="C35">
-        <v>1.926459049873751</v>
+        <v>2.036355652396761</v>
       </c>
       <c r="D35">
-        <v>1.926459049873751</v>
+        <v>2.036355652396761</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1491,13 +1494,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.195813160144835</v>
+        <v>1.665029770804365</v>
       </c>
       <c r="C36">
-        <v>2.001299931315874</v>
+        <v>2.741068402208912</v>
       </c>
       <c r="D36">
-        <v>2.001299931315874</v>
+        <v>2.741068402208912</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1505,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.353014894644573</v>
+        <v>1.308697462561658</v>
       </c>
       <c r="C37">
-        <v>1.059924376759156</v>
+        <v>1.42756588339749</v>
       </c>
       <c r="D37">
-        <v>1.059924376759156</v>
+        <v>1.42756588339749</v>
       </c>
     </row>
   </sheetData>
@@ -1529,13 +1532,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
+        <v>2500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2071,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.460174751811524</v>
+        <v>2.288174725108643</v>
       </c>
       <c r="C2">
-        <v>2.460174751811524</v>
+        <v>2.288174725108643</v>
       </c>
       <c r="D2">
-        <v>2.460174751811524</v>
+        <v>2.288174725108643</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2085,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.917174524559082</v>
+        <v>10.33217429567725</v>
       </c>
       <c r="C3">
-        <v>8.917174524559082</v>
+        <v>10.33217429567725</v>
       </c>
       <c r="D3">
-        <v>8.917174524559082</v>
+        <v>10.33217429567725</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2099,13 +2102,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.644174662482419</v>
+        <v>4.696174708258788</v>
       </c>
       <c r="C4">
-        <v>5.543174639594236</v>
+        <v>4.889174738776365</v>
       </c>
       <c r="D4">
-        <v>5.543174639594236</v>
+        <v>4.889174738776365</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2113,13 +2116,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.112248987549561</v>
+        <v>0.8232488578498547</v>
       </c>
       <c r="C5">
-        <v>1.112248987549561</v>
+        <v>0.8232488578498547</v>
       </c>
       <c r="D5">
-        <v>1.112248987549561</v>
+        <v>0.8232488578498547</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2127,13 +2130,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.547248452491942</v>
+        <v>8.260248654670896</v>
       </c>
       <c r="C6">
-        <v>7.547248452491942</v>
+        <v>8.260248654670896</v>
       </c>
       <c r="D6">
-        <v>7.547248452491942</v>
+        <v>8.260248654670896</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2141,13 +2144,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.717248524785891</v>
+        <v>8.716248883367435</v>
       </c>
       <c r="C7">
-        <v>6.717248524785891</v>
+        <v>8.716248883367435</v>
       </c>
       <c r="D7">
-        <v>6.717248524785891</v>
+        <v>8.716248883367435</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2155,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.353751018632568</v>
+        <v>-2.480751112092651</v>
       </c>
       <c r="C8">
-        <v>-2.854750993837035</v>
+        <v>-2.065751102555907</v>
       </c>
       <c r="D8">
-        <v>-3.105751016725218</v>
+        <v>-2.648750999559081</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2169,13 +2172,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.978249228952146</v>
+        <v>5.99224916791699</v>
       </c>
       <c r="C9">
-        <v>5.588249267099121</v>
+        <v>6.545249331948972</v>
       </c>
       <c r="D9">
-        <v>5.683249343393063</v>
+        <v>6.883249534127929</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2183,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.816248387868896</v>
+        <v>2.026248902853027</v>
       </c>
       <c r="C10">
-        <v>0.7902487464504393</v>
+        <v>2.14324891048242</v>
       </c>
       <c r="D10">
-        <v>2.336248941000001</v>
+        <v>1.828248853261963</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2197,13 +2200,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-5.067750933817871</v>
+        <v>-4.790750888041504</v>
       </c>
       <c r="C11">
-        <v>-5.042751029185304</v>
+        <v>-5.11675100629712</v>
       </c>
       <c r="D11">
-        <v>-5.07975092237378</v>
+        <v>-4.325751021555909</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2211,13 +2214,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2762490202204582</v>
+        <v>1.351249020220457</v>
       </c>
       <c r="C12">
-        <v>0.598248951555906</v>
+        <v>2.515249245287595</v>
       </c>
       <c r="D12">
-        <v>1.505249302508055</v>
+        <v>2.09724931013745</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2225,13 +2228,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-2.297750954891359</v>
+        <v>-2.567751126552738</v>
       </c>
       <c r="C13">
-        <v>-1.554750781322634</v>
+        <v>-1.711750989223635</v>
       </c>
       <c r="D13">
-        <v>-1.071750932003177</v>
+        <v>-1.138751035000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2239,13 +2242,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-7.708751299926512</v>
+        <v>-7.832751277038328</v>
       </c>
       <c r="C14">
-        <v>-7.331751349517576</v>
+        <v>-6.896751311370604</v>
       </c>
       <c r="D14">
-        <v>-6.645751288482421</v>
+        <v>-6.660751250335448</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2253,13 +2256,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.443248649482424</v>
+        <v>2.280248924140626</v>
       </c>
       <c r="C15">
-        <v>2.642248435859376</v>
+        <v>2.632248779182131</v>
       </c>
       <c r="D15">
-        <v>2.120248504523929</v>
+        <v>1.747249122504883</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2267,13 +2270,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-3.804751209373778</v>
+        <v>-2.18375120555908</v>
       </c>
       <c r="C16">
-        <v>-3.816751388664549</v>
+        <v>-2.079751590843504</v>
       </c>
       <c r="D16">
-        <v>0.956248279456787</v>
+        <v>0.7162484129711935</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2281,13 +2284,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.70275049730346</v>
+        <v>-10.57875071092651</v>
       </c>
       <c r="C17">
-        <v>-10.80575075670288</v>
+        <v>-10.48075075670288</v>
       </c>
       <c r="D17">
-        <v>-10.57775054498718</v>
+        <v>-11.33975062891052</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2295,13 +2298,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-5.861750605929688</v>
+        <v>-5.402750638354615</v>
       </c>
       <c r="C18">
-        <v>-2.766750815738039</v>
+        <v>-2.956750491488769</v>
       </c>
       <c r="D18">
-        <v>-2.39975061737378</v>
+        <v>-1.964750865329101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2309,13 +2312,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-9.19275074925879</v>
+        <v>-9.539750823645386</v>
       </c>
       <c r="C19">
-        <v>-7.257750711111818</v>
+        <v>-9.569750771193299</v>
       </c>
       <c r="D19">
-        <v>-5.47675085988501</v>
+        <v>-5.847750768332276</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2323,13 +2326,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-10.21115106609582</v>
+        <v>-9.714151182444089</v>
       </c>
       <c r="C20">
-        <v>-9.892151298792356</v>
+        <v>-10.07715100315332</v>
       </c>
       <c r="D20">
-        <v>-9.745151176722043</v>
+        <v>-10.09415115383386</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2337,13 +2340,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.817150865638915</v>
+        <v>-1.3221508847124</v>
       </c>
       <c r="C21">
-        <v>-2.701150976265133</v>
+        <v>-1.09015101059741</v>
       </c>
       <c r="D21">
-        <v>2.232849325095948</v>
+        <v>1.442849363242921</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2351,13 +2354,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-7.150151096428099</v>
+        <v>-8.582151065910519</v>
       </c>
       <c r="C22">
-        <v>-7.924151216591062</v>
+        <v>-7.607150827491941</v>
       </c>
       <c r="D22">
-        <v>-2.874151025856198</v>
+        <v>-2.188151250923337</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2365,13 +2368,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.546150964191648</v>
+        <v>-5.349150889805053</v>
       </c>
       <c r="C23">
-        <v>-4.541150754383299</v>
+        <v>-6.872150891712401</v>
       </c>
       <c r="D23">
-        <v>-0.3601506170541988</v>
+        <v>-0.4981505331308576</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2379,13 +2382,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-8.049151220591066</v>
+        <v>-8.976151171000001</v>
       </c>
       <c r="C24">
-        <v>-8.366151132853028</v>
+        <v>-8.980151310236451</v>
       </c>
       <c r="D24">
-        <v>-6.561151304514405</v>
+        <v>-3.794151392252443</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2393,13 +2396,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.263151541025636</v>
+        <v>-5.909151258738039</v>
       </c>
       <c r="C25">
-        <v>-5.391151514322756</v>
+        <v>-4.957151165277956</v>
       </c>
       <c r="D25">
-        <v>-1.95215147999048</v>
+        <v>-0.7511515524697288</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2407,13 +2410,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-9.206150998338625</v>
+        <v>-10.17215107844727</v>
       </c>
       <c r="C26">
-        <v>-10.36615122722046</v>
+        <v>-9.449151410325928</v>
       </c>
       <c r="D26">
-        <v>-4.99215105937378</v>
+        <v>-7.074151124223635</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2421,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-8.782151264645384</v>
+        <v>-6.996151108242795</v>
       </c>
       <c r="C27">
-        <v>-7.028151220776365</v>
+        <v>-6.84515122840576</v>
       </c>
       <c r="D27">
-        <v>-4.963151068188475</v>
+        <v>-5.464151091076658</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2435,13 +2438,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-9.585151231942502</v>
+        <v>-9.144151199517577</v>
       </c>
       <c r="C28">
-        <v>-10.37415126627478</v>
+        <v>-8.665151155648557</v>
       </c>
       <c r="D28">
-        <v>-9.649151218591062</v>
+        <v>-8.707151210961667</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2449,13 +2452,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.743625390076661</v>
+        <v>-0.7836254949808339</v>
       </c>
       <c r="C29">
-        <v>-0.6886254663706044</v>
+        <v>-1.732625424408935</v>
       </c>
       <c r="D29">
-        <v>-0.6886254663706044</v>
+        <v>-1.732625424408935</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2463,13 +2466,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.857374629811522</v>
+        <v>10.42537427885937</v>
       </c>
       <c r="C30">
-        <v>9.77737413390088</v>
+        <v>10.38037420256543</v>
       </c>
       <c r="D30">
-        <v>9.77737413390088</v>
+        <v>10.38037420256543</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2477,13 +2480,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.731374609923339</v>
+        <v>3.842374289488768</v>
       </c>
       <c r="C31">
-        <v>4.067374480223631</v>
+        <v>3.830374587035156</v>
       </c>
       <c r="D31">
-        <v>4.067374480223631</v>
+        <v>3.830374587035156</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2491,13 +2494,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.303374253156493</v>
+        <v>8.022374401929687</v>
       </c>
       <c r="C32">
-        <v>8.497374401929688</v>
+        <v>8.201374302747558</v>
       </c>
       <c r="D32">
-        <v>8.497374401929688</v>
+        <v>8.201374302747558</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2505,13 +2508,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.219375196572024</v>
+        <v>7.588375154610354</v>
       </c>
       <c r="C33">
-        <v>7.064375177498537</v>
+        <v>7.748375192757326</v>
       </c>
       <c r="D33">
-        <v>7.064375177498537</v>
+        <v>7.748375192757326</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2519,13 +2522,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.518374311376954</v>
+        <v>4.559374296118165</v>
       </c>
       <c r="C34">
-        <v>3.968374502111816</v>
+        <v>4.472374402929688</v>
       </c>
       <c r="D34">
-        <v>3.968374502111816</v>
+        <v>4.472374402929688</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2533,13 +2536,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.625374762696532</v>
+        <v>5.402374522370605</v>
       </c>
       <c r="C35">
-        <v>5.660374800843508</v>
+        <v>5.360374610108643</v>
       </c>
       <c r="D35">
-        <v>5.660374800843508</v>
+        <v>5.360374610108643</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2547,13 +2550,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.735374604108641</v>
+        <v>1.360374699476072</v>
       </c>
       <c r="C36">
-        <v>1.527374516370603</v>
+        <v>1.43637467468054</v>
       </c>
       <c r="D36">
-        <v>1.527374516370603</v>
+        <v>1.43637467468054</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2561,13 +2564,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.265374436447265</v>
+        <v>2.745374455520752</v>
       </c>
       <c r="C37">
-        <v>2.344374623367433</v>
+        <v>2.388374390670899</v>
       </c>
       <c r="D37">
-        <v>2.344374623367433</v>
+        <v>2.388374390670899</v>
       </c>
     </row>
   </sheetData>

--- a/src/python/tmp/identify_k.xlsx
+++ b/src/python/tmp/identify_k.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>k1</t>
   </si>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0.6220215083921713</v>
+        <v>0.47987502929808</v>
       </c>
       <c r="D2">
-        <v>1317.352123996162</v>
+        <v>1220.290050348365</v>
       </c>
       <c r="E2">
-        <v>510.4334763963741</v>
+        <v>1081.060483346718</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,33 +432,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>0.6512959372045031</v>
+        <v>0.4947203646019662</v>
       </c>
       <c r="D3">
-        <v>1315.799924434939</v>
+        <v>1245.898779626869</v>
       </c>
       <c r="E3">
-        <v>465.2024577850155</v>
+        <v>831.783804398672</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>0.5389739372377325</v>
+      </c>
+      <c r="D4">
+        <v>1298.533994071547</v>
+      </c>
+      <c r="E4">
+        <v>691.3683817965439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>0.6039955213570379</v>
+      </c>
+      <c r="D5">
+        <v>1284.748196574424</v>
+      </c>
+      <c r="E5">
+        <v>430.93631410337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0.7246563342667894</v>
-      </c>
-      <c r="D4">
-        <v>1216.540020710258</v>
-      </c>
-      <c r="E4">
-        <v>304.8851687517172</v>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.7127584938979207</v>
+      </c>
+      <c r="D6">
+        <v>1212.568852883641</v>
+      </c>
+      <c r="E6">
+        <v>215.4002239517472</v>
       </c>
     </row>
   </sheetData>
@@ -468,525 +502,747 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1">
+        <v>500</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-10.86600008010864</v>
+        <v>-11.2530002117157</v>
       </c>
       <c r="C2">
-        <v>-10.86600008010864</v>
+        <v>-10.91400003433228</v>
       </c>
       <c r="D2">
-        <v>-10.86600008010864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-11.27500019073486</v>
+      </c>
+      <c r="E2">
+        <v>-11.12700004577637</v>
+      </c>
+      <c r="F2">
+        <v>-11.12700004577637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-18.90999965667725</v>
+        <v>-16.64399995803833</v>
       </c>
       <c r="C3">
-        <v>-18.90999965667725</v>
+        <v>-17.25899972915649</v>
       </c>
       <c r="D3">
-        <v>-18.90999965667725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-18.14699964523316</v>
+      </c>
+      <c r="E3">
+        <v>-19.24399948120117</v>
+      </c>
+      <c r="F3">
+        <v>-19.24399948120117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-15.08400001525879</v>
+        <v>-15.11900014877319</v>
       </c>
       <c r="C4">
-        <v>-15.27700004577637</v>
+        <v>-15.64400014877319</v>
       </c>
       <c r="D4">
-        <v>-15.27700004577637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-15.28900012969971</v>
+      </c>
+      <c r="E4">
+        <v>-15.33100023269653</v>
+      </c>
+      <c r="F4">
+        <v>-17.63899965286255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-10.93200006484985</v>
+        <v>-10.24899988174439</v>
       </c>
       <c r="C5">
-        <v>-10.93200006484985</v>
+        <v>-11.06999998092651</v>
       </c>
       <c r="D5">
-        <v>-10.93200006484985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-11.1539999961853</v>
+      </c>
+      <c r="E5">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-10.99400005340576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-18.3689998626709</v>
+        <v>-18.60299987792969</v>
       </c>
       <c r="C6">
-        <v>-18.3689998626709</v>
+        <v>-18.2149995803833</v>
       </c>
       <c r="D6">
-        <v>-18.3689998626709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-18.67399940490723</v>
+      </c>
+      <c r="E6">
+        <v>-18.40499973297119</v>
+      </c>
+      <c r="F6">
+        <v>-18.59899959564209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-18.82500009536743</v>
+        <v>-14.71499996185303</v>
       </c>
       <c r="C7">
-        <v>-18.82500009536743</v>
+        <v>-15.08600015640259</v>
       </c>
       <c r="D7">
-        <v>-18.82500009536743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-16.3229998588562</v>
+      </c>
+      <c r="E7">
+        <v>-19.15799980163574</v>
+      </c>
+      <c r="F7">
+        <v>-19.08899974822998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-10.59800000190735</v>
+        <v>-10.63900012969971</v>
       </c>
       <c r="C8">
-        <v>-11.01300001144409</v>
+        <v>-11.1350001335144</v>
       </c>
       <c r="D8">
-        <v>-10.43000011444092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-10.59900007247925</v>
+      </c>
+      <c r="E8">
+        <v>-11.41300010681152</v>
+      </c>
+      <c r="F8">
+        <v>-10.27599992752075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-19.07100028991699</v>
+        <v>-17.52300004959107</v>
       </c>
       <c r="C9">
-        <v>-19.62400045394897</v>
+        <v>-18.37000045776367</v>
       </c>
       <c r="D9">
-        <v>-19.96200065612793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-18.30000047683716</v>
+      </c>
+      <c r="E9">
+        <v>-19.75300045013428</v>
+      </c>
+      <c r="F9">
+        <v>-19.71900062561035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-16.16499996185303</v>
+        <v>-15.47699966430664</v>
       </c>
       <c r="C10">
-        <v>-16.28199996948242</v>
+        <v>-16.04999971389771</v>
       </c>
       <c r="D10">
-        <v>-15.96699991226196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-15.65499982833862</v>
+      </c>
+      <c r="E10">
+        <v>-17.19300003051758</v>
+      </c>
+      <c r="F10">
+        <v>-18.30900020599365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-10.9980001449585</v>
+        <v>-10.39900012016296</v>
       </c>
       <c r="C11">
-        <v>-10.67200002670288</v>
+        <v>-10.35999999046326</v>
       </c>
       <c r="D11">
-        <v>-11.46300001144409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-10.60600004196167</v>
+      </c>
+      <c r="E11">
+        <v>-11.23800001144409</v>
+      </c>
+      <c r="F11">
+        <v>-10.42699995040894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-17.14000005722046</v>
+        <v>-12.48699998855591</v>
       </c>
       <c r="C12">
-        <v>-18.3040002822876</v>
+        <v>-14.29200019836426</v>
       </c>
       <c r="D12">
-        <v>-17.88600034713745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-14.93000011444092</v>
+      </c>
+      <c r="E12">
+        <v>-16.74700002670288</v>
+      </c>
+      <c r="F12">
+        <v>-18.28500022888183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-13.22099990844726</v>
+        <v>-11.19900002479553</v>
       </c>
       <c r="C13">
-        <v>-14.07700004577637</v>
+        <v>-11.77200002670288</v>
       </c>
       <c r="D13">
-        <v>-14.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-12.13800001144409</v>
+      </c>
+      <c r="E13">
+        <v>-14.37399997711182</v>
+      </c>
+      <c r="F13">
+        <v>-15.96999998092651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.65600004196167</v>
+        <v>-10.29500012397766</v>
       </c>
       <c r="C14">
-        <v>-10.59200000762939</v>
+        <v>-10.49800004959106</v>
       </c>
       <c r="D14">
-        <v>-10.82800006866455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-10.27699999809265</v>
+      </c>
+      <c r="E14">
+        <v>-10.75900001525879</v>
+      </c>
+      <c r="F14">
+        <v>-9.502000093460083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-19.76900024414062</v>
+        <v>-15.96399989128113</v>
       </c>
       <c r="C15">
-        <v>-20.12100009918213</v>
+        <v>-18.27800016403198</v>
       </c>
       <c r="D15">
-        <v>-19.23600044250488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-19.69699974060059</v>
+      </c>
+      <c r="E15">
+        <v>-18.97000026702881</v>
+      </c>
+      <c r="F15">
+        <v>-19.92899990081787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-15.30500011444092</v>
+        <v>-12.4460000038147</v>
       </c>
       <c r="C16">
-        <v>-15.40899972915649</v>
+        <v>-13.6710000038147</v>
       </c>
       <c r="D16">
-        <v>-18.20499973297119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-13.31199984550476</v>
+      </c>
+      <c r="E16">
+        <v>-16.4129997253418</v>
+      </c>
+      <c r="F16">
+        <v>-18.46199970245361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.53000001907349</v>
+        <v>-10.78700008392334</v>
       </c>
       <c r="C17">
-        <v>-10.62799997329712</v>
+        <v>-10.85700006484985</v>
       </c>
       <c r="D17">
-        <v>-9.769000101089478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-9.979000091552734</v>
+      </c>
+      <c r="E17">
+        <v>-10.52000002861023</v>
+      </c>
+      <c r="F17">
+        <v>-10.49900016784668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-15.70600008964539</v>
+        <v>-11.02400026321411</v>
       </c>
       <c r="C18">
-        <v>-18.15200023651123</v>
+        <v>-11.36300010681152</v>
       </c>
       <c r="D18">
-        <v>-19.1439998626709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-13.45500011444092</v>
+      </c>
+      <c r="E18">
+        <v>-15.39399995803833</v>
+      </c>
+      <c r="F18">
+        <v>-19.37499990463257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-11.56899991035461</v>
+        <v>-11.09400019645691</v>
       </c>
       <c r="C19">
-        <v>-11.5389999628067</v>
+        <v>-11.44700012207031</v>
       </c>
       <c r="D19">
-        <v>-15.26099996566773</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-11.50400004386902</v>
+      </c>
+      <c r="E19">
+        <v>-12.58399987220764</v>
+      </c>
+      <c r="F19">
+        <v>-16.00899982452393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.011999988555909</v>
+        <v>-8.491000080108643</v>
       </c>
       <c r="C20">
-        <v>-8.64900016784668</v>
+        <v>-8.273000049591065</v>
       </c>
       <c r="D20">
-        <v>-8.632000017166138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-8.697000122070312</v>
+      </c>
+      <c r="E20">
+        <v>-9.155999994277954</v>
+      </c>
+      <c r="F20">
+        <v>-8.206999897956848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-17.4040002822876</v>
+        <v>-12.20700016021729</v>
       </c>
       <c r="C21">
-        <v>-17.63600015640259</v>
+        <v>-11.95500016212463</v>
       </c>
       <c r="D21">
-        <v>-20.16900053024292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-12.10400009155273</v>
+      </c>
+      <c r="E21">
+        <v>-15.50000033378601</v>
+      </c>
+      <c r="F21">
+        <v>-21.98000049591064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-10.14400010108948</v>
+        <v>-8.827000093460082</v>
       </c>
       <c r="C22">
-        <v>-11.11900033950806</v>
+        <v>-8.479000174999237</v>
       </c>
       <c r="D22">
-        <v>-16.53799991607666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-7.339999914169312</v>
+      </c>
+      <c r="E22">
+        <v>-12.1120002746582</v>
+      </c>
+      <c r="F22">
+        <v>-17.74699964523315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-13.37700028419495</v>
+        <v>-9.001999998092652</v>
       </c>
       <c r="C23">
-        <v>-11.8540002822876</v>
+        <v>-9.889000129699706</v>
       </c>
       <c r="D23">
-        <v>-18.22800064086914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-11.20500030517578</v>
+      </c>
+      <c r="E23">
+        <v>-13.51200037002564</v>
+      </c>
+      <c r="F23">
+        <v>-18.12400035858154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-9.75</v>
+        <v>-8.902999973297119</v>
       </c>
       <c r="C24">
-        <v>-9.745999860763551</v>
+        <v>-9.885999870300292</v>
       </c>
       <c r="D24">
-        <v>-14.93199977874756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-9.89399995803833</v>
+      </c>
+      <c r="E24">
+        <v>-10.94799995422363</v>
+      </c>
+      <c r="F24">
+        <v>-15.70699987411499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-12.81699991226196</v>
+        <v>-12.82099976539612</v>
       </c>
       <c r="C25">
-        <v>-13.76900000572205</v>
+        <v>-14.29099969863892</v>
       </c>
       <c r="D25">
-        <v>-17.97499961853027</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-14.88099956512451</v>
+      </c>
+      <c r="E25">
+        <v>-14.99299983978272</v>
+      </c>
+      <c r="F25">
+        <v>-17.90200004577637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-8.554000091552734</v>
+        <v>-9.263000011444092</v>
       </c>
       <c r="C26">
-        <v>-9.276999759674073</v>
+        <v>-9.028999948501587</v>
       </c>
       <c r="D26">
-        <v>-11.65200004577637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-9.417999982833862</v>
+      </c>
+      <c r="E26">
+        <v>-9.739000034332275</v>
+      </c>
+      <c r="F26">
+        <v>-14.28000011444092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-11.7300000667572</v>
+        <v>-8.472000169754029</v>
       </c>
       <c r="C27">
-        <v>-11.88099994659424</v>
+        <v>-9.786999940872192</v>
       </c>
       <c r="D27">
-        <v>-13.26200008392334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-10.62300000190735</v>
+      </c>
+      <c r="E27">
+        <v>-12.23900003433227</v>
+      </c>
+      <c r="F27">
+        <v>-15.20500011444092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-9.581999969482421</v>
+        <v>-8.602999997138976</v>
       </c>
       <c r="C28">
-        <v>-10.06100001335144</v>
+        <v>-8.136000084877015</v>
       </c>
       <c r="D28">
-        <v>-10.01899995803833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-8.915999889373779</v>
+      </c>
+      <c r="E28">
+        <v>-8.668000030517579</v>
+      </c>
+      <c r="F28">
+        <v>-13.74200000762939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-9.671999979019166</v>
+        <v>-8.567999982833863</v>
       </c>
       <c r="C29">
-        <v>-8.723000049591064</v>
+        <v>-9.246000051498413</v>
       </c>
       <c r="D29">
-        <v>-8.723000049591064</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-8.340000057220459</v>
+      </c>
+      <c r="E29">
+        <v>-9.117999982833862</v>
+      </c>
+      <c r="F29">
+        <v>-9.563000011444093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>-20.71699981689453</v>
+      </c>
+      <c r="C30">
+        <v>-20.12299976348877</v>
+      </c>
+      <c r="D30">
         <v>-20.88099975585937</v>
       </c>
-      <c r="C30">
-        <v>-20.83599967956543</v>
-      </c>
-      <c r="D30">
-        <v>-20.83599967956543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>-20.35999984741211</v>
+      </c>
+      <c r="F30">
+        <v>-20.89799957275391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-14.29799976348877</v>
+        <v>-13.21499996185303</v>
       </c>
       <c r="C31">
-        <v>-14.28600006103516</v>
+        <v>-13.31000020503998</v>
       </c>
       <c r="D31">
-        <v>-14.28600006103516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-15.99400005340576</v>
+      </c>
+      <c r="E31">
+        <v>-17.1230001449585</v>
+      </c>
+      <c r="F31">
+        <v>-18.40300025939941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-18.47799987792969</v>
+        <v>-16.54699993133545</v>
       </c>
       <c r="C32">
-        <v>-18.65699977874756</v>
+        <v>-18.45700016021728</v>
       </c>
       <c r="D32">
-        <v>-18.65699977874756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-18.7879997253418</v>
+      </c>
+      <c r="E32">
+        <v>-18.09699983596802</v>
+      </c>
+      <c r="F32">
+        <v>-18.53299999237061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-18.14400062561035</v>
+        <v>-10.71700029373169</v>
       </c>
       <c r="C33">
-        <v>-18.30400066375732</v>
+        <v>-12.50800037384033</v>
       </c>
       <c r="D33">
-        <v>-18.30400066375732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-14.59800043106079</v>
+      </c>
+      <c r="E33">
+        <v>-18.29200057983399</v>
+      </c>
+      <c r="F33">
+        <v>-18.6720006942749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-15.01499977111816</v>
+        <v>-13.62499980926514</v>
       </c>
       <c r="C34">
-        <v>-14.92799987792969</v>
+        <v>-13.6939998626709</v>
       </c>
       <c r="D34">
-        <v>-14.92799987792969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-14.22799987792969</v>
+      </c>
+      <c r="E34">
+        <v>-15.48399972915649</v>
+      </c>
+      <c r="F34">
+        <v>-15.65799970626831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-15.8579999923706</v>
+        <v>-14.67700023651123</v>
       </c>
       <c r="C35">
-        <v>-15.81600008010864</v>
+        <v>-15.84400014877319</v>
       </c>
       <c r="D35">
-        <v>-15.81600008010864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-15.81600017547607</v>
+      </c>
+      <c r="E35">
+        <v>-15.41000013351441</v>
+      </c>
+      <c r="F35">
+        <v>-16.70700006484985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-11.81600017547607</v>
+        <v>-11.06000003814697</v>
       </c>
       <c r="C36">
-        <v>-11.89200015068054</v>
+        <v>-11.28600006103516</v>
       </c>
       <c r="D36">
-        <v>-11.89200015068054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-11.89600019454956</v>
+      </c>
+      <c r="E36">
+        <v>-13.70300006866455</v>
+      </c>
+      <c r="F36">
+        <v>-13.16000003814697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-13.20099992752075</v>
+        <v>-10.77999997138977</v>
       </c>
       <c r="C37">
-        <v>-12.8439998626709</v>
+        <v>-12.90799999237061</v>
       </c>
       <c r="D37">
-        <v>-12.8439998626709</v>
+        <v>-13.24099998474121</v>
+      </c>
+      <c r="E37">
+        <v>-12.96399993896484</v>
+      </c>
+      <c r="F37">
+        <v>-13.52599992752075</v>
       </c>
     </row>
   </sheetData>
@@ -996,525 +1252,747 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1">
+        <v>500</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.145523601473692</v>
+        <v>1.263345247980635</v>
       </c>
       <c r="C2">
-        <v>1.145523601473692</v>
+        <v>1.477763218037949</v>
       </c>
       <c r="D2">
-        <v>1.145523601473692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.157663604774767</v>
+      </c>
+      <c r="E2">
+        <v>0.9309786816870045</v>
+      </c>
+      <c r="F2">
+        <v>0.9309786816870045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000099675360851</v>
+        <v>3.316800047638572</v>
       </c>
       <c r="C3">
-        <v>1.000099675360851</v>
+        <v>1.359789989432622</v>
       </c>
       <c r="D3">
-        <v>1.000099675360851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.003227410114262</v>
+      </c>
+      <c r="E3">
+        <v>0.4053441684514565</v>
+      </c>
+      <c r="F3">
+        <v>0.4053441684514565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.652520640954465</v>
+        <v>0.7466920056602099</v>
       </c>
       <c r="C4">
-        <v>1.087226413410471</v>
+        <v>0.5165306840259278</v>
       </c>
       <c r="D4">
-        <v>1.087226413410471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.7817473227245195</v>
+      </c>
+      <c r="E4">
+        <v>1.251490710499488</v>
+      </c>
+      <c r="F4">
+        <v>1.863106991996915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.516890248446877</v>
+        <v>1.347742245266375</v>
       </c>
       <c r="C5">
-        <v>1.516890248446877</v>
+        <v>1.468979151474634</v>
       </c>
       <c r="D5">
-        <v>1.516890248446877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.172477749813103</v>
+      </c>
+      <c r="E5">
+        <v>2.33023604445735</v>
+      </c>
+      <c r="F5">
+        <v>1.519961902497369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7913081511189101</v>
+        <v>0.8545061251900929</v>
       </c>
       <c r="C6">
-        <v>0.7913081511189101</v>
+        <v>1.045707407310972</v>
       </c>
       <c r="D6">
-        <v>0.7913081511189101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.3949479887510388</v>
+      </c>
+      <c r="E6">
+        <v>0.8231916957475669</v>
+      </c>
+      <c r="F6">
+        <v>0.6817542596566901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.800473391727487</v>
+        <v>3.915955381092492</v>
       </c>
       <c r="C7">
-        <v>1.800473391727487</v>
+        <v>2.876780211546219</v>
       </c>
       <c r="D7">
-        <v>1.800473391727487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.812980616521514</v>
+      </c>
+      <c r="E7">
+        <v>0.9666002114055163</v>
+      </c>
+      <c r="F7">
+        <v>0.9549182716350778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.379672481020194</v>
+        <v>1.117635528409078</v>
       </c>
       <c r="C8">
-        <v>1.229431245241183</v>
+        <v>0.7977750741956687</v>
       </c>
       <c r="D8">
-        <v>1.366177145004059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.560176059977585</v>
+      </c>
+      <c r="E8">
+        <v>0.72277335742434</v>
+      </c>
+      <c r="F8">
+        <v>1.626008660442391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.541973563206181</v>
+        <v>3.775640586496811</v>
       </c>
       <c r="C9">
-        <v>1.936415472205508</v>
+        <v>3.161313291242697</v>
       </c>
       <c r="D9">
-        <v>1.112859395361392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.506933456137686</v>
+      </c>
+      <c r="E9">
+        <v>1.224598200388938</v>
+      </c>
+      <c r="F9">
+        <v>1.399824756967774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7041626723980269</v>
+        <v>1.569516093808135</v>
       </c>
       <c r="C10">
-        <v>0.7260689038034123</v>
+        <v>0.9656188737892762</v>
       </c>
       <c r="D10">
-        <v>1.753340084494987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.442430173791458</v>
+      </c>
+      <c r="E10">
+        <v>1.125895840992154</v>
+      </c>
+      <c r="F10">
+        <v>0.8108073522636655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.143536586601533</v>
+        <v>1.798585416758719</v>
       </c>
       <c r="C11">
-        <v>1.714968161213453</v>
+        <v>1.556258420058933</v>
       </c>
       <c r="D11">
-        <v>0.8099760053542449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.29766103012649</v>
+      </c>
+      <c r="E11">
+        <v>1.20472244443332</v>
+      </c>
+      <c r="F11">
+        <v>2.100519258049019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.191826022525297</v>
+        <v>3.314145602577084</v>
       </c>
       <c r="C12">
-        <v>0.4463903023164335</v>
+        <v>3.731610563200005</v>
       </c>
       <c r="D12">
-        <v>1.057310019351197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.664008674540528</v>
+      </c>
+      <c r="E12">
+        <v>2.191397200785937</v>
+      </c>
+      <c r="F12">
+        <v>0.4369041944364476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.213271088766315</v>
+        <v>2.215222119269467</v>
       </c>
       <c r="C13">
-        <v>2.574638203891144</v>
+        <v>2.076154294408334</v>
       </c>
       <c r="D13">
-        <v>1.906305149969082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.078007761737929</v>
+      </c>
+      <c r="E13">
+        <v>1.883120799512524</v>
+      </c>
+      <c r="F13">
+        <v>1.235969267534089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.208163177742394</v>
+        <v>1.329490562613507</v>
       </c>
       <c r="C14">
-        <v>1.381403712708049</v>
+        <v>1.061233302720381</v>
       </c>
       <c r="D14">
-        <v>0.7028628097202004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1.320083816715289</v>
+      </c>
+      <c r="E14">
+        <v>0.8875634718514711</v>
+      </c>
+      <c r="F14">
+        <v>1.883739925128256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7592422154355113</v>
+        <v>5.161087278171761</v>
       </c>
       <c r="C15">
-        <v>0.8254503187807742</v>
+        <v>3.001888700039657</v>
       </c>
       <c r="D15">
-        <v>1.030176563099675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.447639660221492</v>
+      </c>
+      <c r="E15">
+        <v>1.171435004573616</v>
+      </c>
+      <c r="F15">
+        <v>1.007079217857748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.705336474661106</v>
+        <v>1.893014448708256</v>
       </c>
       <c r="C16">
-        <v>3.222339014697157</v>
+        <v>2.659836107722016</v>
       </c>
       <c r="D16">
-        <v>1.551652184667055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>4.224111212518072</v>
+      </c>
+      <c r="E16">
+        <v>2.713226988135714</v>
+      </c>
+      <c r="F16">
+        <v>0.8829470919768166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.510211925716857</v>
+        <v>1.206325569396323</v>
       </c>
       <c r="C17">
-        <v>1.420385824597179</v>
+        <v>1.083947107583629</v>
       </c>
       <c r="D17">
-        <v>1.464175150838716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2.081405534534615</v>
+      </c>
+      <c r="E17">
+        <v>1.699782372524517</v>
+      </c>
+      <c r="F17">
+        <v>1.039571630955823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.432959168875953</v>
+        <v>1.638695919496391</v>
       </c>
       <c r="C18">
-        <v>2.998992527300211</v>
+        <v>3.915633037896101</v>
       </c>
       <c r="D18">
-        <v>2.286863332450445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4.160248199330479</v>
+      </c>
+      <c r="E18">
+        <v>4.028096763912716</v>
+      </c>
+      <c r="F18">
+        <v>1.985398014560903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.352264484546236</v>
+        <v>1.917035341668344</v>
       </c>
       <c r="C19">
-        <v>3.243530387086581</v>
+        <v>1.288262906715202</v>
       </c>
       <c r="D19">
-        <v>1.530708567176837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2.293613629922876</v>
+      </c>
+      <c r="E19">
+        <v>3.08522989672412</v>
+      </c>
+      <c r="F19">
+        <v>1.122964331110569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.010710642936977</v>
+        <v>2.027350262611471</v>
       </c>
       <c r="C20">
-        <v>1.187438006666549</v>
+        <v>1.458204654479732</v>
       </c>
       <c r="D20">
-        <v>1.432332337779868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1.777639193557119</v>
+      </c>
+      <c r="E20">
+        <v>1.046367034025086</v>
+      </c>
+      <c r="F20">
+        <v>1.877775517128932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.936203062996602</v>
+        <v>5.099720066576839</v>
       </c>
       <c r="C21">
-        <v>5.280241028263673</v>
+        <v>5.22559556302661</v>
       </c>
       <c r="D21">
-        <v>4.537619552312716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>6.092006693515128</v>
+      </c>
+      <c r="E21">
+        <v>6.278851974005534</v>
+      </c>
+      <c r="F21">
+        <v>0.4056603685664369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.601186400299266</v>
+        <v>1.855672752355443</v>
       </c>
       <c r="C22">
-        <v>3.908916731273717</v>
+        <v>2.870782052796903</v>
       </c>
       <c r="D22">
-        <v>1.588179873519957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.629508980882273</v>
+      </c>
+      <c r="E22">
+        <v>3.311017462184052</v>
+      </c>
+      <c r="F22">
+        <v>1.570770775725175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.414469810944749</v>
+        <v>1.724423218942058</v>
       </c>
       <c r="C23">
-        <v>5.321983509231721</v>
+        <v>3.709022890313961</v>
       </c>
       <c r="D23">
-        <v>0.8051562562919451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>4.926139315221512</v>
+      </c>
+      <c r="E23">
+        <v>4.951167485141997</v>
+      </c>
+      <c r="F23">
+        <v>0.7150416006085567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7488390929341189</v>
+        <v>2.032427334973691</v>
       </c>
       <c r="C24">
-        <v>2.193819415362211</v>
+        <v>1.148235089524849</v>
       </c>
       <c r="D24">
-        <v>3.272053674530456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>1.602985898037368</v>
+      </c>
+      <c r="E24">
+        <v>2.118422875277849</v>
+      </c>
+      <c r="F24">
+        <v>1.438297880516602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.853367318655487</v>
+        <v>5.107354010826865</v>
       </c>
       <c r="C25">
-        <v>4.416506180813691</v>
+        <v>5.085794513471799</v>
       </c>
       <c r="D25">
-        <v>2.160611934093905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>5.01689801650615</v>
+      </c>
+      <c r="E25">
+        <v>4.14269959010548</v>
+      </c>
+      <c r="F25">
+        <v>1.019997851006958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.420804084810308</v>
+        <v>1.098198950088388</v>
       </c>
       <c r="C26">
-        <v>1.141113894091496</v>
+        <v>1.044944515359661</v>
       </c>
       <c r="D26">
-        <v>2.273810942229824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1.445322091509057</v>
+      </c>
+      <c r="E26">
+        <v>1.781322232201591</v>
+      </c>
+      <c r="F26">
+        <v>1.026099372394119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.004869449045595</v>
+        <v>2.163468597224765</v>
       </c>
       <c r="C27">
-        <v>2.573932602190468</v>
+        <v>1.86160157632255</v>
       </c>
       <c r="D27">
-        <v>2.292648252908897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.428604703122273</v>
+      </c>
+      <c r="E27">
+        <v>2.619608685844913</v>
+      </c>
+      <c r="F27">
+        <v>0.7020152285302168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6255204393080628</v>
+        <v>2.32511525531174</v>
       </c>
       <c r="C28">
-        <v>2.590631017212006</v>
+        <v>2.414304059183703</v>
       </c>
       <c r="D28">
-        <v>2.698286236785032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1.157999916603744</v>
+      </c>
+      <c r="E28">
+        <v>1.952074759110964</v>
+      </c>
+      <c r="F28">
+        <v>1.131024277221617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.145528625190604</v>
+        <v>1.854253569785852</v>
       </c>
       <c r="C29">
-        <v>1.414482745758801</v>
+        <v>1.72089631646391</v>
       </c>
       <c r="D29">
-        <v>1.414482745758801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>2.074979565522116</v>
+      </c>
+      <c r="E29">
+        <v>1.009800021752343</v>
+      </c>
+      <c r="F29">
+        <v>1.071849387288962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.3799064050356306</v>
+        <v>0.5612848789993019</v>
       </c>
       <c r="C30">
-        <v>0.7020000457763672</v>
+        <v>2.045531785981446</v>
       </c>
       <c r="D30">
-        <v>0.7020000457763672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.5669998168945312</v>
+      </c>
+      <c r="E30">
+        <v>1.144150194672408</v>
+      </c>
+      <c r="F30">
+        <v>0.344000244140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.714806605633389</v>
+        <v>3.789979694744872</v>
       </c>
       <c r="C31">
-        <v>3.198878739994938</v>
+        <v>5.490080227519289</v>
       </c>
       <c r="D31">
-        <v>3.198878739994938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>3.041986950301483</v>
+      </c>
+      <c r="E31">
+        <v>2.45219125870805</v>
+      </c>
+      <c r="F31">
+        <v>1.928865365036029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.034077127114804</v>
+        <v>4.314735365317389</v>
       </c>
       <c r="C32">
-        <v>0.9001561831189517</v>
+        <v>0.6313801117191403</v>
       </c>
       <c r="D32">
-        <v>0.9001561831189517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.8454322755153287</v>
+      </c>
+      <c r="E32">
+        <v>1.402077244607489</v>
+      </c>
+      <c r="F32">
+        <v>1.185284993400127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.109416394859374</v>
+        <v>4.362128323903188</v>
       </c>
       <c r="C33">
-        <v>0.9520107487464976</v>
+        <v>4.835384054667333</v>
       </c>
       <c r="D33">
-        <v>0.9520107487464976</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>5.220396512715261</v>
+      </c>
+      <c r="E33">
+        <v>0.9495139540159543</v>
+      </c>
+      <c r="F33">
+        <v>0.4002452192909645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.709188213513307</v>
+        <v>2.40810810799795</v>
       </c>
       <c r="C34">
-        <v>1.901855875758207</v>
+        <v>2.220811454423395</v>
       </c>
       <c r="D34">
-        <v>1.901855875758207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2.725042177231624</v>
+      </c>
+      <c r="E34">
+        <v>1.97189333230671</v>
+      </c>
+      <c r="F34">
+        <v>1.050511953352245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.006473723600044</v>
+        <v>2.774869659425567</v>
       </c>
       <c r="C35">
-        <v>2.036355652396761</v>
+        <v>1.847788981593603</v>
       </c>
       <c r="D35">
-        <v>2.036355652396761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.758261647483508</v>
+      </c>
+      <c r="E35">
+        <v>1.147902605457839</v>
+      </c>
+      <c r="F35">
+        <v>1.323352438421952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.665029770804365</v>
+        <v>1.753453678973631</v>
       </c>
       <c r="C36">
-        <v>2.741068402208912</v>
+        <v>1.715722545330215</v>
       </c>
       <c r="D36">
-        <v>2.741068402208912</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.64984356040778</v>
+      </c>
+      <c r="E36">
+        <v>0.653238832841878</v>
+      </c>
+      <c r="F36">
+        <v>1.427347234271348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.308697462561658</v>
+        <v>2.302377037749534</v>
       </c>
       <c r="C37">
-        <v>1.42756588339749</v>
+        <v>1.477807809095555</v>
       </c>
       <c r="D37">
-        <v>1.42756588339749</v>
+        <v>1.679984685787163</v>
+      </c>
+      <c r="E37">
+        <v>1.251065161992292</v>
+      </c>
+      <c r="F37">
+        <v>1.111487316668413</v>
       </c>
     </row>
   </sheetData>
@@ -1524,525 +2002,747 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1">
+        <v>500</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2.106754846726716</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5.266887116816789</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.53377423363358</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2.106754841038477</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5.266887102596193</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10.53377420519239</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.329989512832903</v>
+        <v>0.9329989512832902</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2.332497378208226</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4.664994756416451</v>
+      </c>
+      <c r="E4">
+        <v>46.64994756416451</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1.057843225963805</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2.644608064909513</v>
       </c>
       <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.289216129819025</v>
+      </c>
+      <c r="E5">
+        <v>52.89216129819025</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1.057843225487775</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>2.644608063719437</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5.289216127438873</v>
+      </c>
+      <c r="E6">
+        <v>52.89216127438873</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1.057843223583659</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2.644608058959147</v>
       </c>
       <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>5.289216117918293</v>
+      </c>
+      <c r="E7">
+        <v>52.89216117918293</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.779628477770794</v>
+        <v>0.2779628477770794</v>
       </c>
       <c r="C8">
-        <v>6.949071194426986</v>
+        <v>0.6949071194426986</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.389814238885397</v>
+      </c>
+      <c r="E8">
+        <v>13.89814238885397</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.779628467764129</v>
+        <v>0.2779628467764129</v>
       </c>
       <c r="C9">
-        <v>6.949071169410321</v>
+        <v>0.6949071169410321</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.389814233882064</v>
+      </c>
+      <c r="E9">
+        <v>13.89814233882064</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.725155691637334</v>
+        <v>0.1725155691637334</v>
       </c>
       <c r="C10">
-        <v>4.312889229093335</v>
+        <v>0.4312889229093335</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.8625778458186669</v>
+      </c>
+      <c r="E10">
+        <v>8.625778458186669</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8210406270915556</v>
+        <v>0.08210406270915555</v>
       </c>
       <c r="C11">
-        <v>2.052601567728889</v>
+        <v>0.2052601567728889</v>
       </c>
       <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.4105203135457778</v>
+      </c>
+      <c r="E11">
+        <v>4.105203135457778</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8210406256136823</v>
+        <v>0.08210406256136822</v>
       </c>
       <c r="C12">
-        <v>2.052601564034206</v>
+        <v>0.2052601564034206</v>
       </c>
       <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.4105203128068411</v>
+      </c>
+      <c r="E12">
+        <v>4.105203128068411</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8210406263526182</v>
+        <v>0.08210406263526182</v>
       </c>
       <c r="C13">
-        <v>2.052601565881545</v>
+        <v>0.2052601565881546</v>
       </c>
       <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.4105203131763091</v>
+      </c>
+      <c r="E13">
+        <v>4.105203131763091</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3820580133232599</v>
+        <v>0.03820580133232598</v>
       </c>
       <c r="C14">
-        <v>0.9551450333081497</v>
+        <v>0.09551450333081497</v>
       </c>
       <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1910290066616299</v>
+      </c>
+      <c r="E14">
+        <v>1.910290066616299</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3820580131513337</v>
+        <v>0.03820580131513337</v>
       </c>
       <c r="C15">
-        <v>0.9551450328783343</v>
+        <v>0.09551450328783342</v>
       </c>
       <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.1910290065756668</v>
+      </c>
+      <c r="E15">
+        <v>1.910290065756669</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3820580131513337</v>
+        <v>0.03820580131513337</v>
       </c>
       <c r="C16">
-        <v>0.9551450328783343</v>
+        <v>0.09551450328783342</v>
       </c>
       <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1910290065756668</v>
+      </c>
+      <c r="E16">
+        <v>1.910290065756669</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.07493137760731169</v>
+        <v>0.007493137760731169</v>
       </c>
       <c r="C17">
-        <v>0.1873284440182792</v>
+        <v>0.01873284440182792</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.03746568880365585</v>
+      </c>
+      <c r="E17">
+        <v>0.3746568880365584</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07493137767474981</v>
+        <v>0.00749313776747498</v>
       </c>
       <c r="C18">
-        <v>0.1873284441868745</v>
+        <v>0.01873284441868745</v>
       </c>
       <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.0374656888373749</v>
+      </c>
+      <c r="E18">
+        <v>0.374656888373749</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.07493137747243507</v>
+        <v>0.007493137747243507</v>
       </c>
       <c r="C19">
-        <v>0.1873284436810877</v>
+        <v>0.01873284436810877</v>
       </c>
       <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.03746568873621754</v>
+      </c>
+      <c r="E19">
+        <v>0.3746568873621754</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2189279173277283</v>
+        <v>0.02189279173277283</v>
       </c>
       <c r="C20">
-        <v>0.5473197933193207</v>
+        <v>0.05473197933193207</v>
       </c>
       <c r="D20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1094639586638641</v>
+      </c>
+      <c r="E20">
+        <v>1.094639586638641</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2189279177217986</v>
+        <v>0.02189279177217986</v>
       </c>
       <c r="C21">
-        <v>0.5473197943044964</v>
+        <v>0.05473197943044964</v>
       </c>
       <c r="D21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1094639588608993</v>
+      </c>
+      <c r="E21">
+        <v>1.094639588608993</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2189279177217986</v>
+        <v>0.02189279177217986</v>
       </c>
       <c r="C22">
-        <v>0.5473197943044964</v>
+        <v>0.05473197943044964</v>
       </c>
       <c r="D22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1094639588608993</v>
+      </c>
+      <c r="E22">
+        <v>1.094639588608993</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2189279170321754</v>
+        <v>0.02189279170321754</v>
       </c>
       <c r="C23">
-        <v>0.5473197925804385</v>
+        <v>0.05473197925804384</v>
       </c>
       <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1094639585160877</v>
+      </c>
+      <c r="E23">
+        <v>1.094639585160877</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2189279173277279</v>
+        <v>0.02189279173277279</v>
       </c>
       <c r="C24">
-        <v>0.5473197933193198</v>
+        <v>0.05473197933193198</v>
       </c>
       <c r="D24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.109463958663864</v>
+      </c>
+      <c r="E24">
+        <v>1.09463958663864</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2189279173277279</v>
+        <v>0.02189279173277279</v>
       </c>
       <c r="C25">
-        <v>0.5473197933193198</v>
+        <v>0.05473197933193198</v>
       </c>
       <c r="D25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.109463958663864</v>
+      </c>
+      <c r="E25">
+        <v>1.09463958663864</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2189279174262453</v>
+        <v>0.02189279174262453</v>
       </c>
       <c r="C26">
-        <v>0.5473197935656132</v>
+        <v>0.05473197935656132</v>
       </c>
       <c r="D26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.1094639587131226</v>
+      </c>
+      <c r="E26">
+        <v>1.094639587131226</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.218927916933658</v>
+        <v>0.0218927916933658</v>
       </c>
       <c r="C27">
-        <v>0.5473197923341451</v>
+        <v>0.0547319792334145</v>
       </c>
       <c r="D27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.109463958466829</v>
+      </c>
+      <c r="E27">
+        <v>1.09463958466829</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2189279175247634</v>
+        <v>0.02189279175247634</v>
       </c>
       <c r="C28">
-        <v>0.5473197938119085</v>
+        <v>0.05473197938119086</v>
       </c>
       <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.1094639587623817</v>
+      </c>
+      <c r="E28">
+        <v>1.094639587623817</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.049629482216162</v>
+        <v>0.9049629482216162</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>2.26240737055404</v>
       </c>
       <c r="D29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>4.524814741108081</v>
+      </c>
+      <c r="E29">
+        <v>45.24814741108081</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.049629469999161</v>
+        <v>0.9049629469999162</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>2.26240736749979</v>
       </c>
       <c r="D30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>4.52481473499958</v>
+      </c>
+      <c r="E30">
+        <v>45.2481473499958</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.049629482216153</v>
+        <v>0.9049629482216154</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>2.262407370554038</v>
       </c>
       <c r="D31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4.524814741108076</v>
+      </c>
+      <c r="E31">
+        <v>45.24814741108077</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.049629474071494</v>
+        <v>0.9049629474071494</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>2.262407368517874</v>
       </c>
       <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>4.524814737035747</v>
+      </c>
+      <c r="E32">
+        <v>45.24814737035747</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.651423008200654</v>
+        <v>0.8651423008200654</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>2.162855752050163</v>
       </c>
       <c r="D33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>4.325711504100327</v>
+      </c>
+      <c r="E33">
+        <v>43.25711504100327</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.049629478143828</v>
+        <v>0.9049629478143828</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>2.262407369535957</v>
       </c>
       <c r="D34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>4.524814739071914</v>
+      </c>
+      <c r="E34">
+        <v>45.24814739071914</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.049629498505496</v>
+        <v>0.9049629498505497</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>2.262407374626374</v>
       </c>
       <c r="D35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>4.524814749252748</v>
+      </c>
+      <c r="E35">
+        <v>45.24814749252748</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.049629474071486</v>
+        <v>0.9049629474071486</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>2.262407368517871</v>
       </c>
       <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>4.524814737035743</v>
+      </c>
+      <c r="E36">
+        <v>45.24814737035743</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.049629490360829</v>
+        <v>0.9049629490360829</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>2.262407372590207</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>4.524814745180414</v>
+      </c>
+      <c r="E37">
+        <v>45.24814745180414</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2052,525 +2752,747 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.288174725108643</v>
+        <v>2.675174856715698</v>
       </c>
       <c r="C2">
-        <v>2.288174725108643</v>
+        <v>2.336174679332276</v>
       </c>
       <c r="D2">
-        <v>2.288174725108643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2.697174835734863</v>
+      </c>
+      <c r="E2">
+        <v>2.549174690776367</v>
+      </c>
+      <c r="F2">
+        <v>2.549174690776367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.33217429567725</v>
+        <v>8.066174597038328</v>
       </c>
       <c r="C3">
-        <v>10.33217429567725</v>
+        <v>8.681174368156492</v>
       </c>
       <c r="D3">
-        <v>10.33217429567725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.569174284233155</v>
+      </c>
+      <c r="E3">
+        <v>10.66617412020117</v>
+      </c>
+      <c r="F3">
+        <v>10.66617412020117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.696174708258788</v>
+        <v>4.731174841773191</v>
       </c>
       <c r="C4">
-        <v>4.889174738776365</v>
+        <v>5.256174841773191</v>
       </c>
       <c r="D4">
-        <v>4.889174738776365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4.901174822699705</v>
+      </c>
+      <c r="E4">
+        <v>4.943174925696532</v>
+      </c>
+      <c r="F4">
+        <v>7.251174345862546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8232488578498547</v>
+        <v>0.1402486747443863</v>
       </c>
       <c r="C5">
-        <v>0.8232488578498547</v>
+        <v>0.9612487739265152</v>
       </c>
       <c r="D5">
-        <v>0.8232488578498547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.045248789185303</v>
+      </c>
+      <c r="E5">
+        <v>-0.1587512069999999</v>
+      </c>
+      <c r="F5">
+        <v>0.8852488464057622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.260248654670896</v>
+        <v>8.494248669929686</v>
       </c>
       <c r="C6">
-        <v>8.260248654670896</v>
+        <v>8.106248372383298</v>
       </c>
       <c r="D6">
-        <v>8.260248654670896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.565248196907227</v>
+      </c>
+      <c r="E6">
+        <v>8.29624852497119</v>
+      </c>
+      <c r="F6">
+        <v>8.49024838764209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.716248883367435</v>
+        <v>4.60624874985303</v>
       </c>
       <c r="C7">
-        <v>8.716248883367435</v>
+        <v>4.977248944402589</v>
       </c>
       <c r="D7">
-        <v>8.716248883367435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6.214248646856202</v>
+      </c>
+      <c r="E7">
+        <v>9.049248589635745</v>
+      </c>
+      <c r="F7">
+        <v>8.980248536229983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.480751112092651</v>
+        <v>-2.439750984300293</v>
       </c>
       <c r="C8">
-        <v>-2.065751102555907</v>
+        <v>-1.943750980485595</v>
       </c>
       <c r="D8">
-        <v>-2.648750999559081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-2.479751041520752</v>
+      </c>
+      <c r="E8">
+        <v>-1.665751007188476</v>
+      </c>
+      <c r="F8">
+        <v>-2.802751186479247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.99224916791699</v>
+        <v>4.444248927591063</v>
       </c>
       <c r="C9">
-        <v>6.545249331948972</v>
+        <v>5.291249335763672</v>
       </c>
       <c r="D9">
-        <v>6.883249534127929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>5.221249354837157</v>
+      </c>
+      <c r="E9">
+        <v>6.674249328134275</v>
+      </c>
+      <c r="F9">
+        <v>6.640249503610351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.026248902853027</v>
+        <v>1.33824860530664</v>
       </c>
       <c r="C10">
-        <v>2.14324891048242</v>
+        <v>1.911248654897705</v>
       </c>
       <c r="D10">
-        <v>1.828248853261963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.516248769338622</v>
+      </c>
+      <c r="E10">
+        <v>3.054248971517577</v>
+      </c>
+      <c r="F10">
+        <v>4.170249146993651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-4.790750888041504</v>
+        <v>-5.389750912837037</v>
       </c>
       <c r="C11">
-        <v>-5.11675100629712</v>
+        <v>-5.428751042536744</v>
       </c>
       <c r="D11">
-        <v>-4.325751021555909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-5.182750991038331</v>
+      </c>
+      <c r="E11">
+        <v>-4.550751021555909</v>
+      </c>
+      <c r="F11">
+        <v>-5.361751082591065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.351249020220457</v>
+        <v>-3.301751048444093</v>
       </c>
       <c r="C12">
-        <v>2.515249245287595</v>
+        <v>-1.496750838635743</v>
       </c>
       <c r="D12">
-        <v>2.09724931013745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.8587509225590821</v>
+      </c>
+      <c r="E12">
+        <v>0.9582489897028807</v>
+      </c>
+      <c r="F12">
+        <v>2.496249191881834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-2.567751126552738</v>
+        <v>-4.58975101020447</v>
       </c>
       <c r="C13">
-        <v>-1.711750989223635</v>
+        <v>-4.016751008297122</v>
       </c>
       <c r="D13">
-        <v>-1.138751035000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-3.650751023555911</v>
+      </c>
+      <c r="E13">
+        <v>-1.414751057888186</v>
+      </c>
+      <c r="F13">
+        <v>0.1812489459265105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-7.832751277038328</v>
+        <v>-7.193751195022337</v>
       </c>
       <c r="C14">
-        <v>-6.896751311370604</v>
+        <v>-6.990751269408934</v>
       </c>
       <c r="D14">
-        <v>-6.660751250335448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-7.211751320907346</v>
+      </c>
+      <c r="E14">
+        <v>-6.72975130374121</v>
+      </c>
+      <c r="F14">
+        <v>-7.986751225539916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.280248924140626</v>
+        <v>-1.52475142871887</v>
       </c>
       <c r="C15">
-        <v>2.632248779182131</v>
+        <v>0.7892488440319845</v>
       </c>
       <c r="D15">
-        <v>1.747249122504883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>2.208248420600587</v>
+      </c>
+      <c r="E15">
+        <v>1.48124894702881</v>
+      </c>
+      <c r="F15">
+        <v>2.440248580817872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-2.18375120555908</v>
+        <v>-5.042751316185301</v>
       </c>
       <c r="C16">
-        <v>-2.079751590843504</v>
+        <v>-3.817751316185301</v>
       </c>
       <c r="D16">
-        <v>0.7162484129711935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-4.176751474495237</v>
+      </c>
+      <c r="E16">
+        <v>-1.0757515946582</v>
+      </c>
+      <c r="F16">
+        <v>0.9732483824536153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.57875071092651</v>
+        <v>-10.32175064607666</v>
       </c>
       <c r="C17">
-        <v>-10.48075075670288</v>
+        <v>-10.25175066515014</v>
       </c>
       <c r="D17">
-        <v>-11.33975062891052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-11.12975063844726</v>
+      </c>
+      <c r="E17">
+        <v>-10.58875070138977</v>
+      </c>
+      <c r="F17">
+        <v>-10.60975056215332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-5.402750638354615</v>
+        <v>-10.08475046478589</v>
       </c>
       <c r="C18">
-        <v>-2.956750491488769</v>
+        <v>-9.745750621188478</v>
       </c>
       <c r="D18">
-        <v>-1.964750865329101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-7.653750613559083</v>
+      </c>
+      <c r="E18">
+        <v>-5.71475076996167</v>
+      </c>
+      <c r="F18">
+        <v>-1.733750823367433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-9.539750823645386</v>
+        <v>-10.01475053754309</v>
       </c>
       <c r="C19">
-        <v>-9.569750771193299</v>
+        <v>-9.661750611929689</v>
       </c>
       <c r="D19">
-        <v>-5.847750768332276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-9.604750690130983</v>
+      </c>
+      <c r="E19">
+        <v>-8.524750861792359</v>
+      </c>
+      <c r="F19">
+        <v>-5.099750909476075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.714151182444089</v>
+        <v>-10.23515109089135</v>
       </c>
       <c r="C20">
-        <v>-10.07715100315332</v>
+        <v>-10.45315112140893</v>
       </c>
       <c r="D20">
-        <v>-10.09415115383386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-10.02915104892969</v>
+      </c>
+      <c r="E20">
+        <v>-9.570151176722044</v>
+      </c>
+      <c r="F20">
+        <v>-10.51915127304315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.3221508847124</v>
+        <v>-6.519151006782712</v>
       </c>
       <c r="C21">
-        <v>-1.09015101059741</v>
+        <v>-6.771151004875364</v>
       </c>
       <c r="D21">
-        <v>1.442849363242921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-6.622151075447263</v>
+      </c>
+      <c r="E21">
+        <v>-3.226150833213987</v>
+      </c>
+      <c r="F21">
+        <v>3.253849328910647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-8.582151065910519</v>
+        <v>-9.899151073539915</v>
       </c>
       <c r="C22">
-        <v>-7.607150827491941</v>
+        <v>-10.24715099200076</v>
       </c>
       <c r="D22">
-        <v>-2.188151250923337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-11.38615125283069</v>
+      </c>
+      <c r="E22">
+        <v>-6.614150892341794</v>
+      </c>
+      <c r="F22">
+        <v>-0.9791515217668447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.349150889805053</v>
+        <v>-9.724151175907346</v>
       </c>
       <c r="C23">
-        <v>-6.872150891712401</v>
+        <v>-8.837151044300292</v>
       </c>
       <c r="D23">
-        <v>-0.4981505331308576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-7.521150868824217</v>
+      </c>
+      <c r="E23">
+        <v>-5.214150803974363</v>
+      </c>
+      <c r="F23">
+        <v>-0.6021508154184545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-8.976151171000001</v>
+        <v>-9.823151197702883</v>
       </c>
       <c r="C24">
-        <v>-8.980151310236451</v>
+        <v>-8.840151300699709</v>
       </c>
       <c r="D24">
-        <v>-3.794151392252443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-8.832151212961671</v>
+      </c>
+      <c r="E24">
+        <v>-7.778151216776369</v>
+      </c>
+      <c r="F24">
+        <v>-3.019151296885012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.909151258738039</v>
+        <v>-5.905151405603883</v>
       </c>
       <c r="C25">
-        <v>-4.957151165277956</v>
+        <v>-4.435151472361085</v>
       </c>
       <c r="D25">
-        <v>-0.7511515524697288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-3.84515160587549</v>
+      </c>
+      <c r="E25">
+        <v>-3.733151331217286</v>
+      </c>
+      <c r="F25">
+        <v>-0.8241511252236329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-10.17215107844727</v>
+        <v>-9.46315115855591</v>
       </c>
       <c r="C26">
-        <v>-9.449151410325928</v>
+        <v>-9.697151221498414</v>
       </c>
       <c r="D26">
-        <v>-7.074151124223635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-9.308151187166139</v>
+      </c>
+      <c r="E26">
+        <v>-8.987151135667727</v>
+      </c>
+      <c r="F26">
+        <v>-4.446151055559083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-6.996151108242795</v>
+        <v>-10.25415100524597</v>
       </c>
       <c r="C27">
-        <v>-6.84515122840576</v>
+        <v>-8.939151234127806</v>
       </c>
       <c r="D27">
-        <v>-5.464151091076658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-8.10315117309265</v>
+      </c>
+      <c r="E27">
+        <v>-6.487151140667724</v>
+      </c>
+      <c r="F27">
+        <v>-3.521151060559081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-9.144151199517577</v>
+        <v>-10.12315117186102</v>
       </c>
       <c r="C28">
-        <v>-8.665151155648557</v>
+        <v>-10.59015108412298</v>
       </c>
       <c r="D28">
-        <v>-8.707151210961667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-9.810151279626218</v>
+      </c>
+      <c r="E28">
+        <v>-10.05815113848242</v>
+      </c>
+      <c r="F28">
+        <v>-4.984151161370603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.7836254949808339</v>
+        <v>-1.887625491166137</v>
       </c>
       <c r="C29">
-        <v>-1.732625424408935</v>
+        <v>-1.209625422501587</v>
       </c>
       <c r="D29">
-        <v>-1.732625424408935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-2.11562541677954</v>
+      </c>
+      <c r="E29">
+        <v>-1.337625491166138</v>
+      </c>
+      <c r="F29">
+        <v>-0.8926254625559071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>10.26137433989453</v>
+      </c>
+      <c r="C30">
+        <v>9.667374286488771</v>
+      </c>
+      <c r="D30">
         <v>10.42537427885937</v>
       </c>
-      <c r="C30">
-        <v>10.38037420256543</v>
-      </c>
-      <c r="D30">
-        <v>10.38037420256543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>9.904374370412109</v>
+      </c>
+      <c r="F30">
+        <v>10.44237409575391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.842374289488768</v>
+        <v>2.759374487853027</v>
       </c>
       <c r="C31">
-        <v>3.830374587035156</v>
+        <v>2.854374731039977</v>
       </c>
       <c r="D31">
-        <v>3.830374587035156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>5.53837457940576</v>
+      </c>
+      <c r="E31">
+        <v>6.667374670958495</v>
+      </c>
+      <c r="F31">
+        <v>7.947374785399411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.022374401929687</v>
+        <v>6.091374455335449</v>
       </c>
       <c r="C32">
-        <v>8.201374302747558</v>
+        <v>8.001374684217284</v>
       </c>
       <c r="D32">
-        <v>8.201374302747558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>8.332374249341798</v>
+      </c>
+      <c r="E32">
+        <v>7.641374359968017</v>
+      </c>
+      <c r="F32">
+        <v>8.077374516370606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.588375154610354</v>
+        <v>0.1613748227316911</v>
       </c>
       <c r="C33">
-        <v>7.748375192757326</v>
+        <v>1.952374902840333</v>
       </c>
       <c r="D33">
-        <v>7.748375192757326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>4.042374960060792</v>
+      </c>
+      <c r="E33">
+        <v>7.736375108833986</v>
+      </c>
+      <c r="F33">
+        <v>8.116375223274904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.559374296118165</v>
+        <v>3.169374334265138</v>
       </c>
       <c r="C34">
-        <v>4.472374402929688</v>
+        <v>3.238374387670898</v>
       </c>
       <c r="D34">
-        <v>4.472374402929688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>3.772374402929687</v>
+      </c>
+      <c r="E34">
+        <v>5.028374254156494</v>
+      </c>
+      <c r="F34">
+        <v>5.20237423126831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.402374522370605</v>
+        <v>4.22137476651123</v>
       </c>
       <c r="C35">
-        <v>5.360374610108643</v>
+        <v>5.388374678773195</v>
       </c>
       <c r="D35">
-        <v>5.360374610108643</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>5.360374705476074</v>
+      </c>
+      <c r="E35">
+        <v>4.954374663514406</v>
+      </c>
+      <c r="F35">
+        <v>6.251374594849855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.360374699476072</v>
+        <v>0.6043745621469707</v>
       </c>
       <c r="C36">
-        <v>1.43637467468054</v>
+        <v>0.8303745850351554</v>
       </c>
       <c r="D36">
-        <v>1.43637467468054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.44037471854956</v>
+      </c>
+      <c r="E36">
+        <v>3.247374592664549</v>
+      </c>
+      <c r="F36">
+        <v>2.70437456214697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.745374455520752</v>
+        <v>0.324374499389771</v>
       </c>
       <c r="C37">
-        <v>2.388374390670899</v>
+        <v>2.452374520370606</v>
       </c>
       <c r="D37">
-        <v>2.388374390670899</v>
+        <v>2.785374512741212</v>
+      </c>
+      <c r="E37">
+        <v>2.508374466964844</v>
+      </c>
+      <c r="F37">
+        <v>3.070374455520753</v>
       </c>
     </row>
   </sheetData>
